--- a/Results/Categorization/dp-partial-ner-elmo_ori.xlsx
+++ b/Results/Categorization/dp-partial-ner-elmo_ori.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1829">
   <si>
     <t>id</t>
   </si>
@@ -4036,1192 +4036,1315 @@
     <t>PRICES|FOOD|PRICES</t>
   </si>
   <si>
-    <t>FOOD|SERVICE|FOOD|FOOD</t>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
   </si>
   <si>
     <t>FOOD|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|PRICES|FOOD</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|PRICES|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
+    <t>AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|FOOD|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|FOOD|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|SERVICE|AMBIENCE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|FOOD|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|FOOD|PRICES|FOOD|FOOD</t>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
+    <t>PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|SERVICE|FOOD</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+    <t>PRICES|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>|place</t>
   </si>
   <si>
     <t>food|portions</t>
   </si>
   <si>
-    <t>food|times</t>
-  </si>
-  <si>
     <t>confit|duck</t>
   </si>
   <si>
     <t>list|wine|values</t>
   </si>
   <si>
-    <t>cart|attendant|lotus|leaf</t>
-  </si>
-  <si>
-    <t>pork|chow|family</t>
+    <t>cart|attendant|lotus|leaf|rice|rice</t>
+  </si>
+  <si>
+    <t>mai|pork|fun|chow|family|shu</t>
+  </si>
+  <si>
+    <t>|price</t>
+  </si>
+  <si>
+    <t>service|perfection</t>
+  </si>
+  <si>
+    <t>|visit</t>
+  </si>
+  <si>
+    <t>bit|stuff|food|fusion</t>
+  </si>
+  <si>
+    <t>|chicken|puree</t>
+  </si>
+  <si>
+    <t>|salt|bit</t>
+  </si>
+  <si>
+    <t>effort|tho</t>
+  </si>
+  <si>
+    <t>|list|sake</t>
+  </si>
+  <si>
+    <t>roll|spicy|tempura|tuna|appetizer|rock|shrimp</t>
+  </si>
+  <si>
+    <t>bit|service</t>
+  </si>
+  <si>
+    <t>taste|mouth|service</t>
+  </si>
+  <si>
+    <t>waiter|bit|self-respect</t>
+  </si>
+  <si>
+    <t>notch|service</t>
+  </si>
+  <si>
+    <t>sushi|restaurant|sea|urchin|sushi</t>
+  </si>
+  <si>
+    <t>rice|ration</t>
+  </si>
+  <si>
+    <t>advanatage|half|price|sushi|deal</t>
+  </si>
+  <si>
+    <t>|food|impecable</t>
+  </si>
+  <si>
+    <t>menu|prix|fixe|penny</t>
+  </si>
+  <si>
+    <t>somosas|chai|chole|dhosas|dhal</t>
+  </si>
+  <si>
+    <t>service|varys</t>
+  </si>
+  <si>
+    <t>|food</t>
+  </si>
+  <si>
+    <t>ambience|lunch|conversation</t>
+  </si>
+  <si>
+    <t>river|idea|top|view|chart|house</t>
+  </si>
+  <si>
+    <t>service|food|price|beginning</t>
+  </si>
+  <si>
+    <t>dessert|lava|cake</t>
+  </si>
+  <si>
+    <t>|bistro|path</t>
+  </si>
+  <si>
+    <t>desserts|soup|food|way</t>
+  </si>
+  <si>
+    <t>ambience|food|companion|trip|world</t>
+  </si>
+  <si>
+    <t>pizza|cheese</t>
+  </si>
+  <si>
+    <t>ingredients|pizza</t>
+  </si>
+  <si>
+    <t>meals|life|minnow</t>
+  </si>
+  <si>
+    <t>seafood|wine|list|menu|surprises</t>
+  </si>
+  <si>
+    <t>combination|ingredients|dishes</t>
+  </si>
+  <si>
+    <t>portion|pastrami</t>
+  </si>
+  <si>
+    <t>shrimp|wife</t>
+  </si>
+  <si>
+    <t>|signs|menus|food|waitstaff</t>
+  </si>
+  <si>
+    <t>leon|fare|bistro|village|specials|gem|atmosphere|hip</t>
+  </si>
+  <si>
+    <t>wife|staff</t>
+  </si>
+  <si>
+    <t>wine|prices</t>
+  </si>
+  <si>
+    <t>service|decor|food|portions</t>
+  </si>
+  <si>
+    <t>hostess|point</t>
+  </si>
+  <si>
+    <t>oily|food</t>
+  </si>
+  <si>
+    <t>food|wine|place|service</t>
+  </si>
+  <si>
+    <t>wait|trouble</t>
+  </si>
+  <si>
+    <t>glass|wine</t>
+  </si>
+  <si>
+    <t>|pizza</t>
+  </si>
+  <si>
+    <t>pizza|way</t>
+  </si>
+  <si>
+    <t>toppings</t>
+  </si>
+  <si>
+    <t>lunch|reviews</t>
+  </si>
+  <si>
+    <t>|sauce|flavor|food</t>
+  </si>
+  <si>
+    <t>waitress|food</t>
+  </si>
+  <si>
+    <t>pizza|service</t>
+  </si>
+  <si>
+    <t>|wait</t>
+  </si>
+  <si>
+    <t>block|end</t>
+  </si>
+  <si>
+    <t>sushi|city|hands</t>
+  </si>
+  <si>
+    <t>food|place</t>
+  </si>
+  <si>
+    <t>tuna|gari</t>
+  </si>
+  <si>
+    <t>variety|menu</t>
+  </si>
+  <si>
+    <t>|dumplings|lot|section</t>
+  </si>
+  <si>
+    <t>sashimi|rolls</t>
+  </si>
+  <si>
+    <t>|tuna</t>
+  </si>
+  <si>
+    <t>terrace|garden</t>
+  </si>
+  <si>
+    <t>food|service</t>
+  </si>
+  <si>
+    <t>bet|tartare|steak</t>
+  </si>
+  <si>
+    <t>restaurant|kitchen|part</t>
+  </si>
+  <si>
+    <t>selection|wine|value|price|champagne|house</t>
+  </si>
+  <si>
+    <t>vibe|food|bit</t>
+  </si>
+  <si>
+    <t>bread|tastes|pizza|pizza|toppings|nyc</t>
+  </si>
+  <si>
+    <t>neighborhood|food</t>
+  </si>
+  <si>
+    <t>setting|service|occasion</t>
+  </si>
+  <si>
+    <t>|roll|scallop</t>
+  </si>
+  <si>
+    <t>moules|ravioli|lobster</t>
+  </si>
+  <si>
+    <t>d'|maitre</t>
+  </si>
+  <si>
+    <t>|dessert</t>
+  </si>
+  <si>
+    <t>|drinks</t>
+  </si>
+  <si>
+    <t>chef|specials</t>
+  </si>
+  <si>
+    <t>lounge</t>
+  </si>
+  <si>
+    <t>combinations|delight|food</t>
+  </si>
+  <si>
+    <t>beers|wines</t>
+  </si>
+  <si>
+    <t>waitress|table|bathroom|dinner|orders|toilet</t>
+  </si>
+  <si>
+    <t>service|food</t>
+  </si>
+  <si>
+    <t>everythig</t>
+  </si>
+  <si>
+    <t>potatoes|tuna|wasabe</t>
+  </si>
+  <si>
+    <t>atmosphere|avenue</t>
+  </si>
+  <si>
+    <t>pizza|mozzarella|cheese|pizzaria</t>
+  </si>
+  <si>
+    <t>selection|appetizer|complaints</t>
+  </si>
+  <si>
+    <t>pie|uws|staff|business</t>
+  </si>
+  <si>
+    <t>salad|food|restaurant</t>
+  </si>
+  <si>
+    <t>quality|dining|restaurant</t>
+  </si>
+  <si>
+    <t>|cheeseburger|excpetiona|chicken|pot|service</t>
+  </si>
+  <si>
+    <t>food|options|rule</t>
+  </si>
+  <si>
+    <t>|roll|heaven</t>
+  </si>
+  <si>
+    <t>sake|menu</t>
+  </si>
+  <si>
+    <t>|roll|teriyaki</t>
+  </si>
+  <si>
+    <t>food|experience|fat</t>
+  </si>
+  <si>
+    <t>selection|wine|list</t>
+  </si>
+  <si>
+    <t>decour|hall|restaurant</t>
+  </si>
+  <si>
+    <t>decor|boths|side|side|hall</t>
+  </si>
+  <si>
+    <t>|band|atmosphere|jazz</t>
+  </si>
+  <si>
+    <t>meal|nyc</t>
+  </si>
+  <si>
+    <t>food|diamond|balance|herbs|tomatoes|homemade</t>
+  </si>
+  <si>
+    <t>laugh|bathrooms|decor</t>
+  </si>
+  <si>
+    <t>husband|tortelini|beers|food|dish</t>
+  </si>
+  <si>
+    <t>|bagel</t>
+  </si>
+  <si>
+    <t>workers|bagel|cream|cheese</t>
+  </si>
+  <si>
+    <t>frist|cafe|st.|food|service</t>
+  </si>
+  <si>
+    <t>roll|lobster|mayo|mayo</t>
+  </si>
+  <si>
+    <t>guests|salad|pizza|fish|chips|fe</t>
+  </si>
+  <si>
+    <t>cafe|st.|service|food</t>
+  </si>
+  <si>
+    <t>|staff</t>
+  </si>
+  <si>
+    <t>chow|fun|chow|oily</t>
+  </si>
+  <si>
+    <t>dumplings|pancakes</t>
+  </si>
+  <si>
+    <t>service|restaurant</t>
+  </si>
+  <si>
+    <t>|sushi|tuna|average|rolls|inside|flavor</t>
+  </si>
+  <si>
+    <t>penang|pad</t>
+  </si>
+  <si>
+    <t>price|service</t>
+  </si>
+  <si>
+    <t>restaurant|food|course</t>
+  </si>
+  <si>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>fish|pam</t>
+  </si>
+  <si>
+    <t>vibe|lots</t>
+  </si>
+  <si>
+    <t>|ingredients</t>
+  </si>
+  <si>
+    <t>|roll|spicy|tuna</t>
+  </si>
+  <si>
+    <t>yellowtail</t>
+  </si>
+  <si>
+    <t>choices|food</t>
+  </si>
+  <si>
+    <t>price|food|service</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>service|perfection</t>
-  </si>
-  <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>stuff|food|fusion|thing</t>
-  </si>
-  <si>
-    <t>thing|chicken|puree</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>effort</t>
-  </si>
-  <si>
-    <t>list|sake</t>
-  </si>
-  <si>
-    <t>roll|spicy|tempura|tuna|appetizer|rock|shrimp</t>
-  </si>
-  <si>
-    <t>taste|mouth|service</t>
-  </si>
-  <si>
-    <t>self-respect</t>
-  </si>
-  <si>
-    <t>notch|service</t>
-  </si>
-  <si>
-    <t>sushi|restaurant|urchin|sushi</t>
-  </si>
-  <si>
-    <t>ration</t>
-  </si>
-  <si>
-    <t>advanatage|half|price|sushi|deal</t>
-  </si>
-  <si>
-    <t>food|impecable</t>
-  </si>
-  <si>
-    <t>menu|prix|fixe|penny</t>
-  </si>
-  <si>
-    <t>somosas|chai|chole|dhosas|dhal</t>
-  </si>
-  <si>
-    <t>service|varys</t>
-  </si>
-  <si>
-    <t>ambience|lunch|conversation</t>
-  </si>
-  <si>
-    <t>idea|view|chart|house</t>
-  </si>
-  <si>
-    <t>service|food|price|beginning</t>
-  </si>
-  <si>
-    <t>dessert|lava|cake</t>
-  </si>
-  <si>
-    <t>bistro|path</t>
-  </si>
-  <si>
-    <t>desserts|soup|food</t>
-  </si>
-  <si>
-    <t>ambience|food|trip|world</t>
-  </si>
-  <si>
-    <t>pizza|cheese</t>
-  </si>
-  <si>
-    <t>ingredients|pizza</t>
-  </si>
-  <si>
-    <t>meals|life|minnow</t>
-  </si>
-  <si>
-    <t>seafood|wine|list|menu|surprises</t>
-  </si>
-  <si>
-    <t>combination|ingredients|dishes</t>
-  </si>
-  <si>
-    <t>portion|pastrami</t>
-  </si>
-  <si>
-    <t>shrimp|wife</t>
-  </si>
-  <si>
-    <t>signs|menus|food|waitstaff</t>
-  </si>
-  <si>
-    <t>leon|fare|bistro|village|specials|atmosphere</t>
-  </si>
-  <si>
-    <t>wife|staff</t>
-  </si>
-  <si>
-    <t>wine|prices</t>
-  </si>
-  <si>
-    <t>service|decor|food|portions</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>oily|food</t>
-  </si>
-  <si>
-    <t>food|wine|times|place|service</t>
-  </si>
-  <si>
-    <t>wait|trouble</t>
-  </si>
-  <si>
-    <t>glass|wine</t>
-  </si>
-  <si>
-    <t>toppings</t>
-  </si>
-  <si>
-    <t>lunch|reviews</t>
-  </si>
-  <si>
-    <t>sauce|flavor|food</t>
-  </si>
-  <si>
-    <t>pizza|service</t>
-  </si>
-  <si>
-    <t>sushi|hands</t>
-  </si>
-  <si>
-    <t>food|place</t>
-  </si>
-  <si>
-    <t>tuna|gari</t>
-  </si>
-  <si>
-    <t>variety|menu</t>
-  </si>
-  <si>
-    <t>dumplings|section</t>
-  </si>
-  <si>
-    <t>sashimi|rolls</t>
-  </si>
-  <si>
-    <t>tuna</t>
-  </si>
-  <si>
-    <t>terrace|garden</t>
-  </si>
-  <si>
-    <t>food|service</t>
-  </si>
-  <si>
-    <t>tartare|steak</t>
-  </si>
-  <si>
-    <t>restaurant|kitchen|part</t>
-  </si>
-  <si>
-    <t>selection|wine|value|price|champagne|house</t>
-  </si>
-  <si>
-    <t>vibe|food</t>
-  </si>
-  <si>
-    <t>bread|tastes|pizza|pizza|toppings</t>
-  </si>
-  <si>
-    <t>neighborhood|food</t>
-  </si>
-  <si>
-    <t>setting|service|occasion</t>
-  </si>
-  <si>
-    <t>roll|scallop</t>
-  </si>
-  <si>
-    <t>moules|ravioli</t>
-  </si>
-  <si>
-    <t>maitre</t>
+    <t>takeout|tupperware|quality</t>
+  </si>
+  <si>
+    <t>salad|caesar</t>
+  </si>
+  <si>
+    <t>pasta|dish</t>
+  </si>
+  <si>
+    <t>tiramisu|chocolate|cake</t>
+  </si>
+  <si>
+    <t>visit|manager</t>
+  </si>
+  <si>
+    <t>|dishes|wine|atmosphere</t>
+  </si>
+  <si>
+    <t>place|pizza|pizza</t>
+  </si>
+  <si>
+    <t>mine|goat|cheese|panchetta|raddichio|kind</t>
+  </si>
+  <si>
+    <t>friend|mushroom|pizza</t>
+  </si>
+  <si>
+    <t>beer</t>
+  </si>
+  <si>
+    <t>service|people</t>
+  </si>
+  <si>
+    <t>|tuna|rubber|hanger</t>
+  </si>
+  <si>
+    <t>service|ambience</t>
+  </si>
+  <si>
+    <t>dish|mignon</t>
+  </si>
+  <si>
+    <t>|section|menu</t>
+  </si>
+  <si>
+    <t>place|spot</t>
+  </si>
+  <si>
+    <t>|service|pizza|wine|wine|area|backyard|dining|place</t>
+  </si>
+  <si>
+    <t>|menu|restaurant</t>
+  </si>
+  <si>
+    <t>|wines</t>
+  </si>
+  <si>
+    <t>service|joint|price|category</t>
+  </si>
+  <si>
+    <t>service|grazie</t>
+  </si>
+  <si>
+    <t>factor|food</t>
+  </si>
+  <si>
+    <t>rosemary|flavoring|orange</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>place|staff|wait</t>
+  </si>
+  <si>
+    <t>someone|dessert</t>
+  </si>
+  <si>
+    <t>service|service|fish</t>
+  </si>
+  <si>
+    <t>tuna|tartar|appetizer</t>
+  </si>
+  <si>
+    <t>family|pizzeria|owners|pizza|fornino|blows|families|receipies</t>
+  </si>
+  <si>
+    <t>place|service</t>
+  </si>
+  <si>
+    <t>food|atmosphere|service|service</t>
+  </si>
+  <si>
+    <t>room|dining|music</t>
+  </si>
+  <si>
+    <t>service|meal|menu</t>
+  </si>
+  <si>
+    <t>view|service|notch|wonderfull</t>
+  </si>
+  <si>
+    <t>service|staff</t>
+  </si>
+  <si>
+    <t>service|place|date|occassion</t>
+  </si>
+  <si>
+    <t>food|menu|price|price|allergies|prixe|fixe|tasting</t>
+  </si>
+  <si>
+    <t>place|lot|fun</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>drinks|way</t>
+  </si>
+  <si>
+    <t>|service</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>resturant|prices</t>
+  </si>
+  <si>
+    <t>ambiance|boot</t>
+  </si>
+  <si>
+    <t>ambience|service</t>
+  </si>
+  <si>
+    <t>|atmosphere|establishment</t>
+  </si>
+  <si>
+    <t>|owner|staff</t>
+  </si>
+  <si>
+    <t>prices|quality</t>
+  </si>
+  <si>
+    <t>trattoria|top</t>
+  </si>
+  <si>
+    <t>|prices|gods|secret</t>
+  </si>
+  <si>
+    <t>|room|secret</t>
+  </si>
+  <si>
+    <t>food|service|value</t>
+  </si>
+  <si>
+    <t>hostess|waitress</t>
+  </si>
+  <si>
+    <t>dessert|waitress|bill|chance|order</t>
+  </si>
+  <si>
+    <t>place|food</t>
+  </si>
+  <si>
+    <t>|dishes</t>
+  </si>
+  <si>
+    <t>decor|service</t>
+  </si>
+  <si>
+    <t>svc|group|bit|esp</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>sandwiches|chips|side</t>
+  </si>
+  <si>
+    <t>experience|desk|atmosphere</t>
+  </si>
+  <si>
+    <t>bar|cigar|staff|patroon</t>
+  </si>
+  <si>
+    <t>service|ambience|date|outing|group</t>
+  </si>
+  <si>
+    <t>|fallback|prices|restaurant</t>
+  </si>
+  <si>
+    <t>seafood|prices</t>
+  </si>
+  <si>
+    <t>lobster|sandwich|price</t>
+  </si>
+  <si>
+    <t>|occassion|sort|candle</t>
+  </si>
+  <si>
+    <t>waiter|mark</t>
+  </si>
+  <si>
+    <t>food|waiters</t>
+  </si>
+  <si>
+    <t>plate|cheese|bargain|delight</t>
+  </si>
+  <si>
+    <t>|list|wine</t>
+  </si>
+  <si>
+    <t>atmosphere|hesititate</t>
+  </si>
+  <si>
+    <t>food|deal|place|self</t>
+  </si>
+  <si>
+    <t>|town</t>
+  </si>
+  <si>
+    <t>|dont|cafe</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>tip|model/waitress|manager</t>
+  </si>
+  <si>
+    <t>staff|cafe|wish|place</t>
+  </si>
+  <si>
+    <t>ambience|prices|fun|food|top|fact</t>
+  </si>
+  <si>
+    <t>experience|customer|service|restaurant</t>
+  </si>
+  <si>
+    <t>gentleman|manager|table|smile|order</t>
+  </si>
+  <si>
+    <t>reservations|hostess|name</t>
+  </si>
+  <si>
+    <t>weather|table|snag</t>
+  </si>
+  <si>
+    <t>staff|bathroom</t>
+  </si>
+  <si>
+    <t>|patrons|closing</t>
+  </si>
+  <si>
+    <t>staff|company|meal</t>
+  </si>
+  <si>
+    <t>|patio</t>
+  </si>
+  <si>
+    <t>service|bit</t>
+  </si>
+  <si>
+    <t>area|garden|herb</t>
+  </si>
+  <si>
+    <t>place|points</t>
+  </si>
+  <si>
+    <t>crowd</t>
+  </si>
+  <si>
+    <t>price|pizzas</t>
+  </si>
+  <si>
+    <t>waiter|money|guys|outta</t>
+  </si>
+  <si>
+    <t>staff|wait</t>
+  </si>
+  <si>
+    <t>|sandwiches</t>
+  </si>
+  <si>
+    <t>room|clerks|style|substance|folks</t>
+  </si>
+  <si>
+    <t>lawns</t>
+  </si>
+  <si>
+    <t>place|prices</t>
+  </si>
+  <si>
+    <t>|sandwich|cheese|manager</t>
+  </si>
+  <si>
+    <t>music|isnt</t>
+  </si>
+  <si>
+    <t>atmoshere|bit</t>
+  </si>
+  <si>
+    <t>crew|staff|staff</t>
+  </si>
+  <si>
+    <t>food|price</t>
+  </si>
+  <si>
+    <t>staff|wait|part|beautification|fun|way|way</t>
+  </si>
+  <si>
+    <t>part|atmosphere|ls|bts</t>
+  </si>
+  <si>
+    <t>shanty|vanilla|setting|music|mmmm</t>
+  </si>
+  <si>
+    <t>taste|music|dj|lady</t>
+  </si>
+  <si>
+    <t>location|fact|prices</t>
+  </si>
+  <si>
+    <t>feature|terrace</t>
+  </si>
+  <si>
+    <t>|setting</t>
+  </si>
+  <si>
+    <t>rest|sum</t>
+  </si>
+  <si>
+    <t>sum|atmosphere|wait|gig|alternative|tables</t>
+  </si>
+  <si>
+    <t>service|atmosphere</t>
+  </si>
+  <si>
+    <t>decor|prices|place|city</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>spreads|toppings</t>
+  </si>
+  <si>
+    <t>ambience|staff|place</t>
+  </si>
+  <si>
+    <t>food|prices|service|service</t>
+  </si>
+  <si>
+    <t>quality|place</t>
+  </si>
+  <si>
+    <t>service|drawbacks|toast</t>
+  </si>
+  <si>
+    <t>service|virgins|regulars|everyone</t>
+  </si>
+  <si>
+    <t>measures|liquers|quibbles|bill</t>
+  </si>
+  <si>
+    <t>|restaurant|nyc|gimmick|theme</t>
+  </si>
+  <si>
+    <t>atomosphere|tables</t>
+  </si>
+  <si>
+    <t>food|price|place</t>
+  </si>
+  <si>
+    <t>ceiling|room|dining</t>
+  </si>
+  <si>
+    <t>place|expectations</t>
+  </si>
+  <si>
+    <t>food|wines|selecion|prices</t>
+  </si>
+  <si>
+    <t>ravioli|bit</t>
+  </si>
+  <si>
+    <t>|food|draw</t>
+  </si>
+  <si>
+    <t>design|atmosphere</t>
+  </si>
+  <si>
+    <t>bottles|wine</t>
+  </si>
+  <si>
+    <t>|opera|jukebox|strokes</t>
+  </si>
+  <si>
+    <t>drinks|half</t>
+  </si>
+  <si>
+    <t>space|redone</t>
+  </si>
+  <si>
+    <t>seating|delight</t>
+  </si>
+  <si>
+    <t>indoor</t>
+  </si>
+  <si>
+    <t>|decor</t>
+  </si>
+  <si>
+    <t>food|prices</t>
+  </si>
+  <si>
+    <t>food|tasting|prices|prices</t>
+  </si>
+  <si>
+    <t>jazz|duo|point</t>
+  </si>
+  <si>
+    <t>music|food|prices|prices|service</t>
+  </si>
+  <si>
+    <t>price|quality|fish|return|visit</t>
+  </si>
+  <si>
+    <t>decor|restaurant|food|staff|manhattanite|side|west|prices|clientele|clientele</t>
+  </si>
+  <si>
+    <t>restaurants|uws|food|wait-staff|service|diner|management</t>
+  </si>
+  <si>
+    <t>side|service|food</t>
+  </si>
+  <si>
+    <t>prices|food</t>
+  </si>
+  <si>
+    <t>food|decor|prices|prices</t>
+  </si>
+  <si>
+    <t>scene|character|light|place</t>
+  </si>
+  <si>
+    <t>fish|chips</t>
+  </si>
+  <si>
+    <t>restaurant|friend</t>
+  </si>
+  <si>
+    <t>space|kind|alice|wonderland|setting</t>
+  </si>
+  <si>
+    <t>|place|bit</t>
+  </si>
+  <si>
+    <t>im|place|fun|pirces</t>
+  </si>
+  <si>
+    <t>|dinner</t>
+  </si>
+  <si>
+    <t>dinner|feet</t>
+  </si>
+  <si>
+    <t>area|garden</t>
+  </si>
+  <si>
+    <t>guacamole|plate</t>
+  </si>
+  <si>
+    <t>water|table|voss|bottles|water|piece</t>
+  </si>
+  <si>
+    <t>view|river|nyc</t>
+  </si>
+  <si>
+    <t>|restaurant</t>
+  </si>
+  <si>
+    <t>food|price|people|people</t>
+  </si>
+  <si>
+    <t>booths|eachother|couple</t>
+  </si>
+  <si>
+    <t>|prices|view</t>
+  </si>
+  <si>
+    <t>bathroom|mens</t>
+  </si>
+  <si>
+    <t>price|prestige|location</t>
+  </si>
+  <si>
+    <t>|boths</t>
+  </si>
+  <si>
+    <t>restaurant|food</t>
+  </si>
+  <si>
+    <t>prices|board</t>
+  </si>
+  <si>
+    <t>belly|dancing|crowd</t>
+  </si>
+  <si>
+    <t>place|value</t>
+  </si>
+  <si>
+    <t>atmosphere|bit|scheme</t>
+  </si>
+  <si>
+    <t>service|price|dish</t>
+  </si>
+  <si>
+    <t>martinis</t>
+  </si>
+  <si>
+    <t>dj|bunch|birthday|friends</t>
+  </si>
+  <si>
+    <t>dinner|wine</t>
+  </si>
+  <si>
+    <t>environment|name</t>
+  </si>
+  <si>
+    <t>place|joe|whealthy</t>
+  </si>
+  <si>
+    <t>|restaurants|landmark</t>
+  </si>
+  <si>
+    <t>environment|lot|guys|wives|escorts</t>
+  </si>
+  <si>
+    <t>|diners</t>
   </si>
   <si>
     <t>drinks</t>
   </si>
   <si>
-    <t>specials</t>
-  </si>
-  <si>
-    <t>lounge</t>
-  </si>
-  <si>
-    <t>combinations|delight|food</t>
-  </si>
-  <si>
-    <t>beers|wines</t>
-  </si>
-  <si>
-    <t>table|bathroom|dinner|orders|toilet</t>
-  </si>
-  <si>
-    <t>service|food</t>
-  </si>
-  <si>
-    <t>everythig</t>
-  </si>
-  <si>
-    <t>potatoes|tuna|wasabe</t>
-  </si>
-  <si>
-    <t>pizza|mozzarella|cheese|pizzaria</t>
-  </si>
-  <si>
-    <t>selection|appetizer|complaints</t>
-  </si>
-  <si>
-    <t>staff|business</t>
-  </si>
-  <si>
-    <t>food|restaurant</t>
-  </si>
-  <si>
-    <t>quality|dining|restaurant</t>
-  </si>
-  <si>
-    <t>cheeseburger|excpetiona|chicken|service</t>
-  </si>
-  <si>
-    <t>food|options|rule</t>
-  </si>
-  <si>
-    <t>roll|heaven</t>
-  </si>
-  <si>
-    <t>sake|menu</t>
-  </si>
-  <si>
-    <t>roll|teriyaki</t>
-  </si>
-  <si>
-    <t>food|experience</t>
-  </si>
-  <si>
-    <t>selection|wine|list</t>
-  </si>
-  <si>
-    <t>decour|hall|restaurant</t>
-  </si>
-  <si>
-    <t>decor|boths|side|side|hall</t>
-  </si>
-  <si>
-    <t>band|atmosphere|jazz</t>
-  </si>
-  <si>
-    <t>food|diamond|balance|herbs|tomatoes|homemade</t>
-  </si>
-  <si>
-    <t>laugh|bathrooms|decor</t>
-  </si>
-  <si>
-    <t>husband|tortelini|beers|food|dish</t>
-  </si>
-  <si>
-    <t>workers|bagel|cream|cheese</t>
-  </si>
-  <si>
-    <t>frist|cafe|food|service</t>
-  </si>
-  <si>
-    <t>roll|mayo|mayo</t>
-  </si>
-  <si>
-    <t>guests|pizza|fish|chips</t>
-  </si>
-  <si>
-    <t>cafe|service|food</t>
-  </si>
-  <si>
-    <t>chow|chow|oily</t>
-  </si>
-  <si>
-    <t>dumplings|pancakes</t>
-  </si>
-  <si>
-    <t>thing|service|restaurant</t>
-  </si>
-  <si>
-    <t>sushi|tuna|average|rolls|inside|flavor</t>
-  </si>
-  <si>
-    <t>penang|everything</t>
-  </si>
-  <si>
-    <t>price|service</t>
-  </si>
-  <si>
-    <t>restaurant|food|course</t>
-  </si>
-  <si>
-    <t>hats</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>vibe|lots</t>
-  </si>
-  <si>
-    <t>roll|spicy|tuna</t>
-  </si>
-  <si>
-    <t>yellowtail</t>
-  </si>
-  <si>
-    <t>choices|food</t>
-  </si>
-  <si>
-    <t>price|food|service</t>
-  </si>
-  <si>
-    <t>takeout|tupperware|quality</t>
-  </si>
-  <si>
-    <t>caesar</t>
-  </si>
-  <si>
-    <t>pasta|dish</t>
-  </si>
-  <si>
-    <t>tiramisu|chocolate|cake</t>
-  </si>
-  <si>
-    <t>dishes|wine|atmosphere</t>
-  </si>
-  <si>
-    <t>place|pizza|pizza</t>
-  </si>
-  <si>
-    <t>mine|goat|cheese|panchetta|raddichio|kind</t>
-  </si>
-  <si>
-    <t>friend|mushroom|pizza</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>service|people</t>
-  </si>
-  <si>
-    <t>tuna|hanger</t>
-  </si>
-  <si>
-    <t>service|ambience</t>
-  </si>
-  <si>
-    <t>dish|mignon</t>
-  </si>
-  <si>
-    <t>section|menu|nothing</t>
-  </si>
-  <si>
-    <t>place|spot</t>
-  </si>
-  <si>
-    <t>service|pizza|wine|wine|area|backyard|dining|place</t>
-  </si>
-  <si>
-    <t>menu|restaurant</t>
-  </si>
-  <si>
-    <t>wines</t>
-  </si>
-  <si>
-    <t>service|joint|price|category</t>
-  </si>
-  <si>
-    <t>service|grazie</t>
-  </si>
-  <si>
-    <t>factor|food</t>
-  </si>
-  <si>
-    <t>rosemary|flavoring|orange</t>
-  </si>
-  <si>
-    <t>place|staff|wait</t>
-  </si>
-  <si>
-    <t>someone|dessert</t>
-  </si>
-  <si>
-    <t>service|service|fish</t>
-  </si>
-  <si>
-    <t>tuna|tartar|appetizer</t>
-  </si>
-  <si>
-    <t>family|pizzeria|owners|pizza|blows|families|receipies</t>
-  </si>
-  <si>
-    <t>place|service</t>
-  </si>
-  <si>
-    <t>food|atmosphere|service|service</t>
-  </si>
-  <si>
-    <t>room|dining|music</t>
-  </si>
-  <si>
-    <t>service|meal|menu</t>
-  </si>
-  <si>
-    <t>view|service|notch|wonderfull</t>
-  </si>
-  <si>
-    <t>service|staff</t>
-  </si>
-  <si>
-    <t>service|place|occassion</t>
-  </si>
-  <si>
-    <t>food|menu|price|price|allergies|prixe|fixe|tasting</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>resturant|prices</t>
-  </si>
-  <si>
-    <t>ambiance|boot</t>
-  </si>
-  <si>
-    <t>ambience|service</t>
-  </si>
-  <si>
-    <t>nothing|atmosphere|establishment</t>
-  </si>
-  <si>
-    <t>prices|quality</t>
-  </si>
-  <si>
-    <t>trattoria</t>
-  </si>
-  <si>
-    <t>prices|gods|secret</t>
-  </si>
-  <si>
-    <t>room|secret</t>
-  </si>
-  <si>
-    <t>everytime|food|service|value</t>
-  </si>
-  <si>
-    <t>dessert|bill|chance|order</t>
-  </si>
-  <si>
-    <t>place|food</t>
-  </si>
-  <si>
-    <t>decor|service</t>
-  </si>
-  <si>
-    <t>times|service</t>
-  </si>
-  <si>
-    <t>group|times</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>sandwiches|anything|chips|side</t>
-  </si>
-  <si>
-    <t>experience|desk|atmosphere</t>
-  </si>
-  <si>
-    <t>cigar|staff</t>
-  </si>
-  <si>
-    <t>service|ambience|outing|group</t>
-  </si>
-  <si>
-    <t>fallback|prices|restaurant</t>
-  </si>
-  <si>
-    <t>seafood|prices</t>
-  </si>
-  <si>
-    <t>sandwich|price</t>
-  </si>
-  <si>
-    <t>occassion|sort|candle</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>food|waiters</t>
-  </si>
-  <si>
-    <t>plate|cheese|bargain|delight</t>
-  </si>
-  <si>
-    <t>list|wine</t>
-  </si>
-  <si>
-    <t>atmosphere|hesititate</t>
-  </si>
-  <si>
-    <t>food|deal|place|self</t>
-  </si>
-  <si>
-    <t>town</t>
-  </si>
-  <si>
-    <t>dont|cafe</t>
-  </si>
-  <si>
-    <t>service|people|thing</t>
-  </si>
-  <si>
-    <t>things|thing|tips</t>
-  </si>
-  <si>
-    <t>model/waitress</t>
-  </si>
-  <si>
-    <t>staff|cafe|wish|place</t>
-  </si>
-  <si>
-    <t>ambience|prices|food|fact</t>
-  </si>
-  <si>
-    <t>experience|customer|service|restaurant</t>
-  </si>
-  <si>
-    <t>gentleman|table|smile|order</t>
-  </si>
-  <si>
-    <t>reservations|times|name</t>
-  </si>
-  <si>
-    <t>weather|table|snag</t>
-  </si>
-  <si>
-    <t>staff|bathroom</t>
-  </si>
-  <si>
-    <t>patrons|closing</t>
-  </si>
-  <si>
-    <t>staff|company|meal</t>
-  </si>
-  <si>
-    <t>area|garden|herb</t>
-  </si>
-  <si>
-    <t>place|points</t>
-  </si>
-  <si>
-    <t>crowd</t>
-  </si>
-  <si>
-    <t>price|pizzas</t>
-  </si>
-  <si>
-    <t>money|guys|outta</t>
-  </si>
-  <si>
-    <t>staff|wait</t>
-  </si>
-  <si>
-    <t>sandwiches</t>
-  </si>
-  <si>
-    <t>room|clerks|style|substance|folks</t>
-  </si>
-  <si>
-    <t>lawns</t>
-  </si>
-  <si>
-    <t>anything|service</t>
-  </si>
-  <si>
-    <t>place|prices</t>
-  </si>
-  <si>
-    <t>sandwich|cheese</t>
-  </si>
-  <si>
-    <t>music|isnt</t>
-  </si>
-  <si>
-    <t>atmoshere</t>
-  </si>
-  <si>
-    <t>crew|staff|staff</t>
-  </si>
-  <si>
-    <t>food|price</t>
-  </si>
-  <si>
-    <t>staff|wait|part|beautification</t>
-  </si>
-  <si>
-    <t>part|atmosphere</t>
-  </si>
-  <si>
-    <t>shanty|vanilla|setting|music|mmmm</t>
-  </si>
-  <si>
-    <t>taste|music|lady</t>
-  </si>
-  <si>
-    <t>fact|prices</t>
-  </si>
-  <si>
-    <t>feature|terrace</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>atmosphere|wait|alternative|tables</t>
-  </si>
-  <si>
-    <t>service|atmosphere</t>
-  </si>
-  <si>
-    <t>decor|prices|place</t>
-  </si>
-  <si>
-    <t>management</t>
-  </si>
-  <si>
-    <t>spreads|toppings</t>
-  </si>
-  <si>
-    <t>ambience|staff|place</t>
-  </si>
-  <si>
-    <t>food|prices|service|service</t>
-  </si>
-  <si>
-    <t>quality|place</t>
-  </si>
-  <si>
-    <t>service|drawbacks|toast</t>
-  </si>
-  <si>
-    <t>service|virgins|regulars|everyone</t>
-  </si>
-  <si>
-    <t>measures|liquers|quibbles|bill</t>
-  </si>
-  <si>
-    <t>restaurant|gimmick|theme</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>atomosphere|tables</t>
-  </si>
-  <si>
-    <t>food|price|place</t>
-  </si>
-  <si>
-    <t>ceiling|room|dining</t>
-  </si>
-  <si>
-    <t>place|expectations</t>
-  </si>
-  <si>
-    <t>food|wines|selecion|prices</t>
-  </si>
-  <si>
-    <t>ravioli|everything</t>
-  </si>
-  <si>
-    <t>food|draw</t>
-  </si>
-  <si>
-    <t>design|atmosphere</t>
-  </si>
-  <si>
-    <t>bottles|wine</t>
-  </si>
-  <si>
-    <t>opera|everything|jukebox|strokes</t>
-  </si>
-  <si>
-    <t>drinks|half</t>
-  </si>
-  <si>
-    <t>space|redone</t>
-  </si>
-  <si>
-    <t>seating|delight</t>
-  </si>
-  <si>
-    <t>indoor</t>
-  </si>
-  <si>
-    <t>food|prices</t>
-  </si>
-  <si>
-    <t>food|tasting|prices|prices</t>
-  </si>
-  <si>
-    <t>jazz|point</t>
-  </si>
-  <si>
-    <t>music|food|prices|prices|service</t>
-  </si>
-  <si>
-    <t>price|quality|fish|return|visit</t>
-  </si>
-  <si>
-    <t>decor|restaurant|food|staff|manhattanite|side|west|prices|clientele|clientele</t>
-  </si>
-  <si>
-    <t>restaurants|food|wait-staff|service|diner|management</t>
-  </si>
-  <si>
-    <t>side|service|food</t>
-  </si>
-  <si>
-    <t>prices|food</t>
-  </si>
-  <si>
-    <t>food|decor|prices|prices</t>
-  </si>
-  <si>
-    <t>scene|character|light|place</t>
-  </si>
-  <si>
-    <t>fish|chips</t>
-  </si>
-  <si>
-    <t>restaurant|friend</t>
-  </si>
-  <si>
-    <t>space|kind|alice|wonderland|setting</t>
-  </si>
-  <si>
-    <t>something|atmosphere</t>
-  </si>
-  <si>
-    <t>place|pirces</t>
-  </si>
-  <si>
-    <t>dinner|feet</t>
-  </si>
-  <si>
-    <t>area|garden</t>
-  </si>
-  <si>
-    <t>guacamole|plate</t>
-  </si>
-  <si>
-    <t>water|table|voss|bottles|water|piece</t>
-  </si>
-  <si>
-    <t>food|price|people|people</t>
-  </si>
-  <si>
-    <t>booths|eachother|couple</t>
-  </si>
-  <si>
-    <t>prices|view</t>
-  </si>
-  <si>
-    <t>bathroom|mens</t>
-  </si>
-  <si>
-    <t>price|prestige</t>
-  </si>
-  <si>
-    <t>restaurant|food</t>
-  </si>
-  <si>
-    <t>prices|board</t>
-  </si>
-  <si>
-    <t>belly|dancing|crowd</t>
-  </si>
-  <si>
-    <t>place|value</t>
-  </si>
-  <si>
-    <t>atmosphere|scheme</t>
-  </si>
-  <si>
-    <t>service|price|dish</t>
-  </si>
-  <si>
-    <t>thing|decor</t>
-  </si>
-  <si>
-    <t>martinis</t>
-  </si>
-  <si>
-    <t>times|bunch|birthday|friends</t>
-  </si>
-  <si>
-    <t>dinner|wine</t>
-  </si>
-  <si>
-    <t>environment|name</t>
-  </si>
-  <si>
-    <t>place|whealthy</t>
-  </si>
-  <si>
-    <t>restaurants|landmark</t>
-  </si>
-  <si>
-    <t>environment|guys|wives|escorts</t>
-  </si>
-  <si>
-    <t>diners</t>
-  </si>
-  <si>
     <t>show|food|wallets|experience|dancers|belly</t>
   </si>
   <si>
-    <t>bill|portion</t>
+    <t>|bill|portion</t>
   </si>
   <si>
     <t>money</t>
@@ -5233,9 +5356,6 @@
     <t>restaurant|feel|price|place</t>
   </si>
   <si>
-    <t>something|food</t>
-  </si>
-  <si>
     <t>buffet|lunch</t>
   </si>
   <si>
@@ -5245,16 +5365,19 @@
     <t>stone|bowl</t>
   </si>
   <si>
-    <t>brasserie|opinion|restaurants</t>
+    <t>restaurant|city</t>
+  </si>
+  <si>
+    <t>brasserie|opinion|restaurants|city</t>
   </si>
   <si>
     <t>deal|party</t>
   </si>
   <si>
-    <t>company|point|price|things|brasserie</t>
-  </si>
-  <si>
-    <t>meat|kimchi|sauces|meal|service</t>
+    <t>company|date|point|price|brasserie</t>
+  </si>
+  <si>
+    <t>meat|kimchi|sauces|salad|meal|service</t>
   </si>
   <si>
     <t>bite|salmon|restaurants|salmon</t>
@@ -5266,10 +5389,10 @@
     <t>pricing</t>
   </si>
   <si>
-    <t>joint|glance|bark</t>
-  </si>
-  <si>
-    <t>restaurant|clients</t>
+    <t>joint|dog|glance|bark</t>
+  </si>
+  <si>
+    <t>restaurant|nyc|clients</t>
   </si>
   <si>
     <t>bread</t>
@@ -5784,10 +5907,10 @@
         <v>1285</v>
       </c>
       <c r="G2" t="s">
-        <v>1089</v>
+        <v>1461</v>
       </c>
       <c r="H2" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5810,10 +5933,10 @@
         <v>1337</v>
       </c>
       <c r="G3" t="s">
-        <v>1446</v>
+        <v>1462</v>
       </c>
       <c r="H3" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5833,13 +5956,13 @@
         <v>1278</v>
       </c>
       <c r="F4" t="s">
-        <v>1337</v>
+        <v>1278</v>
       </c>
       <c r="G4" t="s">
-        <v>1447</v>
+        <v>933</v>
       </c>
       <c r="H4" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5862,10 +5985,10 @@
         <v>1338</v>
       </c>
       <c r="G5" t="s">
-        <v>1448</v>
+        <v>1463</v>
       </c>
       <c r="H5" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5888,10 +6011,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1449</v>
+        <v>1464</v>
       </c>
       <c r="H6" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5914,10 +6037,10 @@
         <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1450</v>
+        <v>1465</v>
       </c>
       <c r="H7" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5940,10 +6063,10 @@
         <v>1341</v>
       </c>
       <c r="G8" t="s">
-        <v>1451</v>
+        <v>1466</v>
       </c>
       <c r="H8" t="s">
-        <v>1757</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5966,10 +6089,10 @@
         <v>1294</v>
       </c>
       <c r="G9" t="s">
-        <v>1452</v>
+        <v>1467</v>
       </c>
       <c r="H9" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5992,10 +6115,10 @@
         <v>1342</v>
       </c>
       <c r="G10" t="s">
-        <v>1453</v>
+        <v>1468</v>
       </c>
       <c r="H10" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6018,10 +6141,10 @@
         <v>1276</v>
       </c>
       <c r="G11" t="s">
-        <v>1454</v>
+        <v>1469</v>
       </c>
       <c r="H11" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6044,10 +6167,10 @@
         <v>1343</v>
       </c>
       <c r="G12" t="s">
-        <v>1455</v>
+        <v>1470</v>
       </c>
       <c r="H12" t="s">
-        <v>1757</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6067,13 +6190,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="G13" t="s">
-        <v>1456</v>
+        <v>1471</v>
       </c>
       <c r="H13" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6093,13 +6216,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G14" t="s">
-        <v>1457</v>
+        <v>1472</v>
       </c>
       <c r="H14" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6119,13 +6242,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1294</v>
+        <v>1344</v>
       </c>
       <c r="G15" t="s">
-        <v>1458</v>
+        <v>1473</v>
       </c>
       <c r="H15" t="s">
-        <v>1759</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6148,10 +6271,10 @@
         <v>1345</v>
       </c>
       <c r="G16" t="s">
-        <v>1459</v>
+        <v>1474</v>
       </c>
       <c r="H16" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6174,10 +6297,10 @@
         <v>1346</v>
       </c>
       <c r="G17" t="s">
-        <v>1460</v>
+        <v>1475</v>
       </c>
       <c r="H17" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6197,13 +6320,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1276</v>
+        <v>1347</v>
       </c>
       <c r="G18" t="s">
-        <v>947</v>
+        <v>1476</v>
       </c>
       <c r="H18" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6223,7 +6346,7 @@
         <v>1278</v>
       </c>
       <c r="H19" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6249,7 +6372,7 @@
         <v>947</v>
       </c>
       <c r="H20" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6275,7 +6398,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6295,13 +6418,13 @@
         <v>1276</v>
       </c>
       <c r="F22" t="s">
-        <v>1341</v>
+        <v>1348</v>
       </c>
       <c r="G22" t="s">
-        <v>1461</v>
+        <v>1477</v>
       </c>
       <c r="H22" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6321,13 +6444,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1278</v>
+        <v>1349</v>
       </c>
       <c r="G23" t="s">
-        <v>1462</v>
+        <v>1478</v>
       </c>
       <c r="H23" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6353,7 +6476,7 @@
         <v>933</v>
       </c>
       <c r="H24" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6376,10 +6499,10 @@
         <v>1347</v>
       </c>
       <c r="G25" t="s">
-        <v>1463</v>
+        <v>1479</v>
       </c>
       <c r="H25" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6399,13 +6522,13 @@
         <v>1278</v>
       </c>
       <c r="F26" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G26" t="s">
-        <v>1464</v>
+        <v>1480</v>
       </c>
       <c r="H26" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6431,7 +6554,7 @@
         <v>996</v>
       </c>
       <c r="H27" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6451,13 +6574,13 @@
         <v>1278</v>
       </c>
       <c r="F28" t="s">
-        <v>1278</v>
+        <v>1338</v>
       </c>
       <c r="G28" t="s">
-        <v>1465</v>
+        <v>1481</v>
       </c>
       <c r="H28" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6477,13 +6600,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G29" t="s">
-        <v>1466</v>
+        <v>1482</v>
       </c>
       <c r="H29" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6506,10 +6629,10 @@
         <v>1337</v>
       </c>
       <c r="G30" t="s">
-        <v>1467</v>
+        <v>1483</v>
       </c>
       <c r="H30" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6529,13 +6652,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G31" t="s">
-        <v>1468</v>
+        <v>1484</v>
       </c>
       <c r="H31" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6561,7 +6684,7 @@
         <v>933</v>
       </c>
       <c r="H32" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6587,7 +6710,7 @@
         <v>959</v>
       </c>
       <c r="H33" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6613,7 +6736,7 @@
         <v>933</v>
       </c>
       <c r="H34" t="s">
-        <v>1760</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6633,13 +6756,13 @@
         <v>1287</v>
       </c>
       <c r="F35" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G35" t="s">
-        <v>1469</v>
+        <v>1485</v>
       </c>
       <c r="H35" t="s">
-        <v>1761</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6659,13 +6782,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G36" t="s">
-        <v>1470</v>
+        <v>1486</v>
       </c>
       <c r="H36" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6691,7 +6814,7 @@
         <v>962</v>
       </c>
       <c r="H37" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6714,10 +6837,10 @@
         <v>1278</v>
       </c>
       <c r="G38" t="s">
-        <v>933</v>
+        <v>1487</v>
       </c>
       <c r="H38" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6737,13 +6860,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1344</v>
+        <v>1355</v>
       </c>
       <c r="G39" t="s">
-        <v>1471</v>
+        <v>1488</v>
       </c>
       <c r="H39" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6763,13 +6886,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="G40" t="s">
-        <v>1472</v>
+        <v>1489</v>
       </c>
       <c r="H40" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6789,13 +6912,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="G41" t="s">
-        <v>1473</v>
+        <v>1490</v>
       </c>
       <c r="H41" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6815,13 +6938,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="G42" t="s">
-        <v>1474</v>
+        <v>1491</v>
       </c>
       <c r="H42" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6844,10 +6967,10 @@
         <v>1337</v>
       </c>
       <c r="G43" t="s">
-        <v>1475</v>
+        <v>1492</v>
       </c>
       <c r="H43" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6873,7 +6996,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6893,13 +7016,13 @@
         <v>1288</v>
       </c>
       <c r="F45" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="G45" t="s">
-        <v>1476</v>
+        <v>1493</v>
       </c>
       <c r="H45" t="s">
-        <v>1762</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6919,13 +7042,13 @@
         <v>1289</v>
       </c>
       <c r="F46" t="s">
-        <v>1343</v>
+        <v>1360</v>
       </c>
       <c r="G46" t="s">
-        <v>1477</v>
+        <v>1494</v>
       </c>
       <c r="H46" t="s">
-        <v>1763</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6948,10 +7071,10 @@
         <v>1338</v>
       </c>
       <c r="G47" t="s">
-        <v>1478</v>
+        <v>1495</v>
       </c>
       <c r="H47" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6977,7 +7100,7 @@
         <v>989</v>
       </c>
       <c r="H48" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7000,10 +7123,10 @@
         <v>1338</v>
       </c>
       <c r="G49" t="s">
-        <v>1479</v>
+        <v>1496</v>
       </c>
       <c r="H49" t="s">
-        <v>1764</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7023,13 +7146,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1356</v>
+        <v>1361</v>
       </c>
       <c r="G50" t="s">
-        <v>1480</v>
+        <v>1497</v>
       </c>
       <c r="H50" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7049,13 +7172,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1357</v>
+        <v>1362</v>
       </c>
       <c r="G51" t="s">
-        <v>1481</v>
+        <v>1498</v>
       </c>
       <c r="H51" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7075,13 +7198,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1358</v>
+        <v>1363</v>
       </c>
       <c r="G52" t="s">
-        <v>1482</v>
+        <v>1499</v>
       </c>
       <c r="H52" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7104,10 +7227,10 @@
         <v>1345</v>
       </c>
       <c r="G53" t="s">
-        <v>1483</v>
+        <v>1500</v>
       </c>
       <c r="H53" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7127,13 +7250,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="G54" t="s">
-        <v>1484</v>
+        <v>1501</v>
       </c>
       <c r="H54" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7153,13 +7276,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
       <c r="G55" t="s">
-        <v>1485</v>
+        <v>1502</v>
       </c>
       <c r="H55" t="s">
-        <v>1765</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7179,13 +7302,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1361</v>
+        <v>1366</v>
       </c>
       <c r="G56" t="s">
-        <v>1486</v>
+        <v>1503</v>
       </c>
       <c r="H56" t="s">
-        <v>1766</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7205,13 +7328,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1362</v>
+        <v>1367</v>
       </c>
       <c r="G57" t="s">
-        <v>1487</v>
+        <v>1504</v>
       </c>
       <c r="H57" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7231,13 +7354,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="G58" t="s">
-        <v>1488</v>
+        <v>1505</v>
       </c>
       <c r="H58" t="s">
-        <v>1767</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7257,13 +7380,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1364</v>
+        <v>1369</v>
       </c>
       <c r="G59" t="s">
-        <v>1489</v>
+        <v>1506</v>
       </c>
       <c r="H59" t="s">
-        <v>1765</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7283,13 +7406,13 @@
         <v>1276</v>
       </c>
       <c r="F60" t="s">
-        <v>1285</v>
+        <v>1342</v>
       </c>
       <c r="G60" t="s">
-        <v>1490</v>
+        <v>1507</v>
       </c>
       <c r="H60" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7312,10 +7435,10 @@
         <v>1338</v>
       </c>
       <c r="G61" t="s">
-        <v>1491</v>
+        <v>1508</v>
       </c>
       <c r="H61" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7335,13 +7458,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1365</v>
+        <v>1370</v>
       </c>
       <c r="G62" t="s">
-        <v>1492</v>
+        <v>1509</v>
       </c>
       <c r="H62" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7364,10 +7487,10 @@
         <v>1342</v>
       </c>
       <c r="G63" t="s">
-        <v>1493</v>
+        <v>1510</v>
       </c>
       <c r="H63" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7390,10 +7513,10 @@
         <v>1338</v>
       </c>
       <c r="G64" t="s">
-        <v>1494</v>
+        <v>1511</v>
       </c>
       <c r="H64" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7419,7 +7542,7 @@
         <v>947</v>
       </c>
       <c r="H65" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7445,7 +7568,7 @@
         <v>987</v>
       </c>
       <c r="H66" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7468,10 +7591,10 @@
         <v>1278</v>
       </c>
       <c r="G67" t="s">
-        <v>989</v>
+        <v>1512</v>
       </c>
       <c r="H67" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7491,13 +7614,13 @@
         <v>1294</v>
       </c>
       <c r="F68" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G68" t="s">
-        <v>989</v>
+        <v>1513</v>
       </c>
       <c r="H68" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7520,10 +7643,10 @@
         <v>1278</v>
       </c>
       <c r="G69" t="s">
-        <v>1495</v>
+        <v>1514</v>
       </c>
       <c r="H69" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7543,13 +7666,13 @@
         <v>1278</v>
       </c>
       <c r="F70" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="G70" t="s">
-        <v>1496</v>
+        <v>1515</v>
       </c>
       <c r="H70" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7569,13 +7692,13 @@
         <v>1277</v>
       </c>
       <c r="F71" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="G71" t="s">
-        <v>1497</v>
+        <v>1516</v>
       </c>
       <c r="H71" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7595,13 +7718,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1278</v>
+        <v>1371</v>
       </c>
       <c r="G72" t="s">
-        <v>933</v>
+        <v>1517</v>
       </c>
       <c r="H72" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7627,7 +7750,7 @@
         <v>947</v>
       </c>
       <c r="H73" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7647,13 +7770,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="G74" t="s">
-        <v>1498</v>
+        <v>1518</v>
       </c>
       <c r="H74" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7676,10 +7799,10 @@
         <v>1276</v>
       </c>
       <c r="G75" t="s">
-        <v>985</v>
+        <v>1519</v>
       </c>
       <c r="H75" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7699,13 +7822,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1372</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1520</v>
       </c>
       <c r="H76" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7725,13 +7848,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1337</v>
+        <v>1373</v>
       </c>
       <c r="G77" t="s">
-        <v>1499</v>
+        <v>1521</v>
       </c>
       <c r="H77" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7754,10 +7877,10 @@
         <v>1337</v>
       </c>
       <c r="G78" t="s">
-        <v>1500</v>
+        <v>1522</v>
       </c>
       <c r="H78" t="s">
-        <v>1768</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7780,10 +7903,10 @@
         <v>1338</v>
       </c>
       <c r="G79" t="s">
-        <v>1501</v>
+        <v>1523</v>
       </c>
       <c r="H79" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7809,7 +7932,7 @@
         <v>933</v>
       </c>
       <c r="H80" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7829,13 +7952,13 @@
         <v>1278</v>
       </c>
       <c r="F81" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="G81" t="s">
-        <v>1502</v>
+        <v>1524</v>
       </c>
       <c r="H81" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7861,7 +7984,7 @@
         <v>1065</v>
       </c>
       <c r="H82" t="s">
-        <v>1767</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7887,7 +8010,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7907,13 +8030,13 @@
         <v>1278</v>
       </c>
       <c r="F84" t="s">
-        <v>1337</v>
+        <v>1373</v>
       </c>
       <c r="G84" t="s">
-        <v>1503</v>
+        <v>1525</v>
       </c>
       <c r="H84" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7936,10 +8059,10 @@
         <v>1338</v>
       </c>
       <c r="G85" t="s">
-        <v>1504</v>
+        <v>1526</v>
       </c>
       <c r="H85" t="s">
-        <v>1769</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7962,10 +8085,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1505</v>
+        <v>1527</v>
       </c>
       <c r="H86" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7985,13 +8108,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="G87" t="s">
-        <v>1506</v>
+        <v>1528</v>
       </c>
       <c r="H87" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8011,13 +8134,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="G88" t="s">
-        <v>1507</v>
+        <v>1529</v>
       </c>
       <c r="H88" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8037,13 +8160,13 @@
         <v>1278</v>
       </c>
       <c r="F89" t="s">
-        <v>1338</v>
+        <v>1363</v>
       </c>
       <c r="G89" t="s">
-        <v>1508</v>
+        <v>1530</v>
       </c>
       <c r="H89" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8063,13 +8186,13 @@
         <v>1298</v>
       </c>
       <c r="F90" t="s">
-        <v>1367</v>
+        <v>1375</v>
       </c>
       <c r="G90" t="s">
-        <v>1509</v>
+        <v>1531</v>
       </c>
       <c r="H90" t="s">
-        <v>1760</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8089,13 +8212,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1368</v>
+        <v>1376</v>
       </c>
       <c r="G91" t="s">
-        <v>1510</v>
+        <v>1532</v>
       </c>
       <c r="H91" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8115,13 +8238,13 @@
         <v>1299</v>
       </c>
       <c r="F92" t="s">
-        <v>1366</v>
+        <v>1377</v>
       </c>
       <c r="G92" t="s">
-        <v>1511</v>
+        <v>1533</v>
       </c>
       <c r="H92" t="s">
-        <v>1770</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8141,13 +8264,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1351</v>
+        <v>1378</v>
       </c>
       <c r="G93" t="s">
-        <v>1512</v>
+        <v>1534</v>
       </c>
       <c r="H93" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8167,13 +8290,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="G94" t="s">
-        <v>1513</v>
+        <v>1535</v>
       </c>
       <c r="H94" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8193,13 +8316,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1369</v>
+        <v>1379</v>
       </c>
       <c r="G95" t="s">
-        <v>1514</v>
+        <v>1536</v>
       </c>
       <c r="H95" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8222,10 +8345,10 @@
         <v>1338</v>
       </c>
       <c r="G96" t="s">
-        <v>1515</v>
+        <v>1537</v>
       </c>
       <c r="H96" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8245,13 +8368,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1338</v>
+        <v>1358</v>
       </c>
       <c r="G97" t="s">
-        <v>1516</v>
+        <v>1538</v>
       </c>
       <c r="H97" t="s">
-        <v>1760</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8271,13 +8394,13 @@
         <v>1276</v>
       </c>
       <c r="F98" t="s">
-        <v>1278</v>
+        <v>1338</v>
       </c>
       <c r="G98" t="s">
-        <v>1517</v>
+        <v>1539</v>
       </c>
       <c r="H98" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8300,10 +8423,10 @@
         <v>1278</v>
       </c>
       <c r="G99" t="s">
-        <v>1105</v>
+        <v>1540</v>
       </c>
       <c r="H99" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8326,10 +8449,10 @@
         <v>1278</v>
       </c>
       <c r="G100" t="s">
-        <v>1518</v>
+        <v>1541</v>
       </c>
       <c r="H100" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8349,13 +8472,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1278</v>
+        <v>1338</v>
       </c>
       <c r="G101" t="s">
-        <v>1519</v>
+        <v>1542</v>
       </c>
       <c r="H101" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8378,10 +8501,10 @@
         <v>1285</v>
       </c>
       <c r="G102" t="s">
-        <v>1520</v>
+        <v>1543</v>
       </c>
       <c r="H102" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8407,7 +8530,7 @@
         <v>968</v>
       </c>
       <c r="H103" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8427,13 +8550,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1358</v>
+        <v>1363</v>
       </c>
       <c r="G104" t="s">
-        <v>1521</v>
+        <v>1544</v>
       </c>
       <c r="H104" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8459,7 +8582,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8482,10 +8605,10 @@
         <v>1338</v>
       </c>
       <c r="G106" t="s">
-        <v>1522</v>
+        <v>1545</v>
       </c>
       <c r="H106" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8505,13 +8628,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1370</v>
+        <v>1380</v>
       </c>
       <c r="G107" t="s">
-        <v>1523</v>
+        <v>1546</v>
       </c>
       <c r="H107" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8534,10 +8657,10 @@
         <v>1371</v>
       </c>
       <c r="G108" t="s">
-        <v>1524</v>
+        <v>1547</v>
       </c>
       <c r="H108" t="s">
-        <v>1771</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8560,10 +8683,10 @@
         <v>1285</v>
       </c>
       <c r="G109" t="s">
-        <v>1525</v>
+        <v>1548</v>
       </c>
       <c r="H109" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8589,7 +8712,7 @@
         <v>1025</v>
       </c>
       <c r="H110" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8615,7 +8738,7 @@
         <v>933</v>
       </c>
       <c r="H111" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8635,13 +8758,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="G112" t="s">
-        <v>1526</v>
+        <v>1549</v>
       </c>
       <c r="H112" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8661,13 +8784,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1285</v>
+        <v>1372</v>
       </c>
       <c r="G113" t="s">
-        <v>1065</v>
+        <v>1550</v>
       </c>
       <c r="H113" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8693,7 +8816,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8716,10 +8839,10 @@
         <v>1371</v>
       </c>
       <c r="G115" t="s">
-        <v>1524</v>
+        <v>1547</v>
       </c>
       <c r="H115" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8739,13 +8862,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1348</v>
+        <v>1381</v>
       </c>
       <c r="G116" t="s">
-        <v>1527</v>
+        <v>1551</v>
       </c>
       <c r="H116" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8765,13 +8888,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1372</v>
+        <v>1382</v>
       </c>
       <c r="G117" t="s">
-        <v>1528</v>
+        <v>1552</v>
       </c>
       <c r="H117" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8791,13 +8914,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1352</v>
+        <v>1383</v>
       </c>
       <c r="G118" t="s">
-        <v>1529</v>
+        <v>1553</v>
       </c>
       <c r="H118" t="s">
-        <v>1768</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8817,13 +8940,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1338</v>
+        <v>1358</v>
       </c>
       <c r="G119" t="s">
-        <v>1530</v>
+        <v>1554</v>
       </c>
       <c r="H119" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8843,13 +8966,13 @@
         <v>1278</v>
       </c>
       <c r="F120" t="s">
-        <v>1358</v>
+        <v>1363</v>
       </c>
       <c r="G120" t="s">
-        <v>1531</v>
+        <v>1555</v>
       </c>
       <c r="H120" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8869,13 +8992,13 @@
         <v>1301</v>
       </c>
       <c r="F121" t="s">
-        <v>1373</v>
+        <v>1384</v>
       </c>
       <c r="G121" t="s">
-        <v>1532</v>
+        <v>1556</v>
       </c>
       <c r="H121" t="s">
-        <v>1765</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8901,7 +9024,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8921,13 +9044,13 @@
         <v>1278</v>
       </c>
       <c r="F123" t="s">
-        <v>1374</v>
+        <v>1385</v>
       </c>
       <c r="G123" t="s">
-        <v>1533</v>
+        <v>1557</v>
       </c>
       <c r="H123" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8953,7 +9076,7 @@
         <v>1035</v>
       </c>
       <c r="H124" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8976,10 +9099,10 @@
         <v>1338</v>
       </c>
       <c r="G125" t="s">
-        <v>1534</v>
+        <v>1558</v>
       </c>
       <c r="H125" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9002,10 +9125,10 @@
         <v>1338</v>
       </c>
       <c r="G126" t="s">
-        <v>1535</v>
+        <v>1559</v>
       </c>
       <c r="H126" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9028,10 +9151,10 @@
         <v>1338</v>
       </c>
       <c r="G127" t="s">
-        <v>1536</v>
+        <v>1560</v>
       </c>
       <c r="H127" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9057,7 +9180,7 @@
         <v>947</v>
       </c>
       <c r="H128" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9077,13 +9200,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1337</v>
+        <v>1386</v>
       </c>
       <c r="G129" t="s">
-        <v>1537</v>
+        <v>1561</v>
       </c>
       <c r="H129" t="s">
-        <v>1760</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9103,13 +9226,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1375</v>
+        <v>1387</v>
       </c>
       <c r="G130" t="s">
-        <v>1538</v>
+        <v>1562</v>
       </c>
       <c r="H130" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9129,13 +9252,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1376</v>
+        <v>1386</v>
       </c>
       <c r="G131" t="s">
-        <v>1539</v>
+        <v>1563</v>
       </c>
       <c r="H131" t="s">
-        <v>1760</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9161,7 +9284,7 @@
         <v>1240</v>
       </c>
       <c r="H132" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9187,7 +9310,7 @@
         <v>933</v>
       </c>
       <c r="H133" t="s">
-        <v>1760</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9207,13 +9330,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1377</v>
+        <v>1388</v>
       </c>
       <c r="G134" t="s">
-        <v>1540</v>
+        <v>1564</v>
       </c>
       <c r="H134" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9233,13 +9356,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1378</v>
+        <v>1389</v>
       </c>
       <c r="G135" t="s">
-        <v>1541</v>
+        <v>1565</v>
       </c>
       <c r="H135" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9259,13 +9382,13 @@
         <v>1278</v>
       </c>
       <c r="F136" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G136" t="s">
-        <v>1046</v>
+        <v>1566</v>
       </c>
       <c r="H136" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9285,13 +9408,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1379</v>
+        <v>1390</v>
       </c>
       <c r="G137" t="s">
-        <v>1542</v>
+        <v>1567</v>
       </c>
       <c r="H137" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9317,7 +9440,7 @@
         <v>1025</v>
       </c>
       <c r="H138" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9337,13 +9460,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="G139" t="s">
-        <v>1543</v>
+        <v>1568</v>
       </c>
       <c r="H139" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9363,13 +9486,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1381</v>
+        <v>1391</v>
       </c>
       <c r="G140" t="s">
-        <v>1544</v>
+        <v>1569</v>
       </c>
       <c r="H140" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9392,10 +9515,10 @@
         <v>1278</v>
       </c>
       <c r="G141" t="s">
-        <v>1050</v>
+        <v>1570</v>
       </c>
       <c r="H141" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9415,13 +9538,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1382</v>
+        <v>1392</v>
       </c>
       <c r="G142" t="s">
-        <v>1545</v>
+        <v>1571</v>
       </c>
       <c r="H142" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9441,13 +9564,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1373</v>
+        <v>1393</v>
       </c>
       <c r="G143" t="s">
-        <v>1546</v>
+        <v>1572</v>
       </c>
       <c r="H143" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9467,13 +9590,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1355</v>
+        <v>1381</v>
       </c>
       <c r="G144" t="s">
-        <v>1547</v>
+        <v>1573</v>
       </c>
       <c r="H144" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9493,13 +9616,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1382</v>
+        <v>1394</v>
       </c>
       <c r="G145" t="s">
-        <v>1548</v>
+        <v>1574</v>
       </c>
       <c r="H145" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9519,13 +9642,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
       <c r="G146" t="s">
-        <v>1549</v>
+        <v>1575</v>
       </c>
       <c r="H146" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9548,10 +9671,10 @@
         <v>1276</v>
       </c>
       <c r="G147" t="s">
-        <v>931</v>
+        <v>1576</v>
       </c>
       <c r="H147" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9571,13 +9694,13 @@
         <v>1278</v>
       </c>
       <c r="F148" t="s">
-        <v>1355</v>
+        <v>1381</v>
       </c>
       <c r="G148" t="s">
-        <v>1550</v>
+        <v>1577</v>
       </c>
       <c r="H148" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9600,10 +9723,10 @@
         <v>1338</v>
       </c>
       <c r="G149" t="s">
-        <v>1551</v>
+        <v>1578</v>
       </c>
       <c r="H149" t="s">
-        <v>1772</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9623,13 +9746,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1384</v>
+        <v>1371</v>
       </c>
       <c r="G150" t="s">
-        <v>1552</v>
+        <v>1579</v>
       </c>
       <c r="H150" t="s">
-        <v>1760</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9649,13 +9772,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1385</v>
+        <v>1396</v>
       </c>
       <c r="G151" t="s">
-        <v>1553</v>
+        <v>1580</v>
       </c>
       <c r="H151" t="s">
-        <v>1773</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9678,10 +9801,10 @@
         <v>1337</v>
       </c>
       <c r="G152" t="s">
-        <v>1554</v>
+        <v>1581</v>
       </c>
       <c r="H152" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9701,13 +9824,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1386</v>
+        <v>1397</v>
       </c>
       <c r="G153" t="s">
-        <v>1555</v>
+        <v>1582</v>
       </c>
       <c r="H153" t="s">
-        <v>1760</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9727,13 +9850,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1367</v>
+        <v>1375</v>
       </c>
       <c r="G154" t="s">
-        <v>1556</v>
+        <v>1583</v>
       </c>
       <c r="H154" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9753,13 +9876,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1278</v>
+        <v>1338</v>
       </c>
       <c r="G155" t="s">
-        <v>1557</v>
+        <v>1584</v>
       </c>
       <c r="H155" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9785,7 +9908,7 @@
         <v>1062</v>
       </c>
       <c r="H156" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9805,13 +9928,13 @@
         <v>1278</v>
       </c>
       <c r="F157" t="s">
-        <v>1278</v>
+        <v>1338</v>
       </c>
       <c r="G157" t="s">
-        <v>1558</v>
+        <v>1585</v>
       </c>
       <c r="H157" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9831,13 +9954,13 @@
         <v>1285</v>
       </c>
       <c r="F158" t="s">
-        <v>1387</v>
+        <v>1372</v>
       </c>
       <c r="G158" t="s">
-        <v>1559</v>
+        <v>1586</v>
       </c>
       <c r="H158" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9863,7 +9986,7 @@
         <v>1065</v>
       </c>
       <c r="H159" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9889,7 +10012,7 @@
         <v>1095</v>
       </c>
       <c r="H160" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9915,7 +10038,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9941,7 +10064,7 @@
         <v>1062</v>
       </c>
       <c r="H162" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9964,10 +10087,10 @@
         <v>1278</v>
       </c>
       <c r="G163" t="s">
-        <v>976</v>
+        <v>1587</v>
       </c>
       <c r="H163" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9993,7 +10116,7 @@
         <v>996</v>
       </c>
       <c r="H164" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10013,13 +10136,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="G165" t="s">
-        <v>1560</v>
+        <v>1588</v>
       </c>
       <c r="H165" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10042,10 +10165,10 @@
         <v>1278</v>
       </c>
       <c r="G166" t="s">
-        <v>1561</v>
+        <v>1589</v>
       </c>
       <c r="H166" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10068,10 +10191,10 @@
         <v>1338</v>
       </c>
       <c r="G167" t="s">
-        <v>1562</v>
+        <v>1590</v>
       </c>
       <c r="H167" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10091,13 +10214,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1388</v>
+        <v>1398</v>
       </c>
       <c r="G168" t="s">
-        <v>1563</v>
+        <v>1591</v>
       </c>
       <c r="H168" t="s">
-        <v>1765</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10123,7 +10246,7 @@
         <v>1065</v>
       </c>
       <c r="H169" t="s">
-        <v>1768</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10146,10 +10269,10 @@
         <v>1294</v>
       </c>
       <c r="G170" t="s">
-        <v>1452</v>
+        <v>1592</v>
       </c>
       <c r="H170" t="s">
-        <v>1765</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10169,13 +10292,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1356</v>
+        <v>1361</v>
       </c>
       <c r="G171" t="s">
-        <v>1564</v>
+        <v>1593</v>
       </c>
       <c r="H171" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10195,13 +10318,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1278</v>
+        <v>1338</v>
       </c>
       <c r="G172" t="s">
-        <v>1565</v>
+        <v>1594</v>
       </c>
       <c r="H172" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10224,10 +10347,10 @@
         <v>1338</v>
       </c>
       <c r="G173" t="s">
-        <v>1566</v>
+        <v>1595</v>
       </c>
       <c r="H173" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10247,13 +10370,13 @@
         <v>1277</v>
       </c>
       <c r="F174" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="G174" t="s">
-        <v>1567</v>
+        <v>1596</v>
       </c>
       <c r="H174" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10276,10 +10399,10 @@
         <v>1337</v>
       </c>
       <c r="G175" t="s">
-        <v>1500</v>
+        <v>1522</v>
       </c>
       <c r="H175" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10299,13 +10422,13 @@
         <v>1276</v>
       </c>
       <c r="F176" t="s">
-        <v>1276</v>
+        <v>1367</v>
       </c>
       <c r="G176" t="s">
-        <v>1454</v>
+        <v>1597</v>
       </c>
       <c r="H176" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10325,13 +10448,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="G177" t="s">
-        <v>1507</v>
+        <v>1529</v>
       </c>
       <c r="H177" t="s">
-        <v>1763</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10351,13 +10474,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="G178" t="s">
-        <v>1507</v>
+        <v>1529</v>
       </c>
       <c r="H178" t="s">
-        <v>1774</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10377,13 +10500,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1367</v>
+        <v>1375</v>
       </c>
       <c r="G179" t="s">
-        <v>1568</v>
+        <v>1598</v>
       </c>
       <c r="H179" t="s">
-        <v>1765</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10403,13 +10526,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1344</v>
+        <v>1355</v>
       </c>
       <c r="G180" t="s">
-        <v>1569</v>
+        <v>1599</v>
       </c>
       <c r="H180" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10429,13 +10552,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1389</v>
+        <v>1399</v>
       </c>
       <c r="G181" t="s">
-        <v>1570</v>
+        <v>1600</v>
       </c>
       <c r="H181" t="s">
-        <v>1768</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10455,13 +10578,13 @@
         <v>1278</v>
       </c>
       <c r="F182" t="s">
-        <v>1390</v>
+        <v>1400</v>
       </c>
       <c r="G182" t="s">
-        <v>1571</v>
+        <v>1601</v>
       </c>
       <c r="H182" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10487,7 +10610,7 @@
         <v>1086</v>
       </c>
       <c r="H183" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10510,10 +10633,10 @@
         <v>1278</v>
       </c>
       <c r="G184" t="s">
-        <v>1572</v>
+        <v>1602</v>
       </c>
       <c r="H184" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10533,13 +10656,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1362</v>
+        <v>1367</v>
       </c>
       <c r="G185" t="s">
-        <v>1573</v>
+        <v>1603</v>
       </c>
       <c r="H185" t="s">
-        <v>1768</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10565,7 +10688,7 @@
         <v>1089</v>
       </c>
       <c r="H186" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10591,7 +10714,7 @@
         <v>933</v>
       </c>
       <c r="H187" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10617,7 +10740,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10643,7 +10766,7 @@
         <v>1095</v>
       </c>
       <c r="H189" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10669,7 +10792,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10689,13 +10812,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1359</v>
+        <v>1348</v>
       </c>
       <c r="G191" t="s">
-        <v>1574</v>
+        <v>1604</v>
       </c>
       <c r="H191" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10718,10 +10841,10 @@
         <v>1342</v>
       </c>
       <c r="G192" t="s">
-        <v>1575</v>
+        <v>1605</v>
       </c>
       <c r="H192" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10741,13 +10864,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="G193" t="s">
-        <v>1507</v>
+        <v>1529</v>
       </c>
       <c r="H193" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10770,10 +10893,10 @@
         <v>1338</v>
       </c>
       <c r="G194" t="s">
-        <v>1576</v>
+        <v>1606</v>
       </c>
       <c r="H194" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10799,7 +10922,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10825,7 +10948,7 @@
         <v>1095</v>
       </c>
       <c r="H196" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10851,7 +10974,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10871,7 +10994,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10891,13 +11014,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1391</v>
+        <v>1374</v>
       </c>
       <c r="G199" t="s">
-        <v>1577</v>
+        <v>1607</v>
       </c>
       <c r="H199" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10923,7 +11046,7 @@
         <v>1046</v>
       </c>
       <c r="H200" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10943,13 +11066,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1387</v>
+        <v>1372</v>
       </c>
       <c r="G201" t="s">
-        <v>1578</v>
+        <v>1608</v>
       </c>
       <c r="H201" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10969,13 +11092,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1392</v>
+        <v>1401</v>
       </c>
       <c r="G202" t="s">
-        <v>1579</v>
+        <v>1609</v>
       </c>
       <c r="H202" t="s">
-        <v>1765</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11001,7 +11124,7 @@
         <v>1089</v>
       </c>
       <c r="H203" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11024,10 +11147,10 @@
         <v>1338</v>
       </c>
       <c r="G204" t="s">
-        <v>1580</v>
+        <v>1610</v>
       </c>
       <c r="H204" t="s">
-        <v>1771</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11050,10 +11173,10 @@
         <v>1278</v>
       </c>
       <c r="G205" t="s">
-        <v>1581</v>
+        <v>1611</v>
       </c>
       <c r="H205" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11073,13 +11196,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1393</v>
+        <v>1402</v>
       </c>
       <c r="G206" t="s">
-        <v>1582</v>
+        <v>1612</v>
       </c>
       <c r="H206" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11102,10 +11225,10 @@
         <v>1371</v>
       </c>
       <c r="G207" t="s">
-        <v>1583</v>
+        <v>1613</v>
       </c>
       <c r="H207" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11128,10 +11251,10 @@
         <v>1345</v>
       </c>
       <c r="G208" t="s">
-        <v>1584</v>
+        <v>1614</v>
       </c>
       <c r="H208" t="s">
-        <v>1760</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11151,13 +11274,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="G209" t="s">
-        <v>1585</v>
+        <v>1615</v>
       </c>
       <c r="H209" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11180,10 +11303,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1558</v>
+        <v>1616</v>
       </c>
       <c r="H210" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11203,13 +11326,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1394</v>
+        <v>1403</v>
       </c>
       <c r="G211" t="s">
-        <v>1586</v>
+        <v>1617</v>
       </c>
       <c r="H211" t="s">
-        <v>1775</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11232,10 +11355,10 @@
         <v>1371</v>
       </c>
       <c r="G212" t="s">
-        <v>1587</v>
+        <v>1618</v>
       </c>
       <c r="H212" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11261,7 +11384,7 @@
         <v>1106</v>
       </c>
       <c r="H213" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11281,13 +11404,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1395</v>
+        <v>1404</v>
       </c>
       <c r="G214" t="s">
-        <v>1588</v>
+        <v>1619</v>
       </c>
       <c r="H214" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11307,13 +11430,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="G215" t="s">
-        <v>1589</v>
+        <v>1620</v>
       </c>
       <c r="H215" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11333,13 +11456,13 @@
         <v>1278</v>
       </c>
       <c r="F216" t="s">
-        <v>1396</v>
+        <v>1405</v>
       </c>
       <c r="G216" t="s">
-        <v>1590</v>
+        <v>1621</v>
       </c>
       <c r="H216" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11362,10 +11485,10 @@
         <v>1347</v>
       </c>
       <c r="G217" t="s">
-        <v>1591</v>
+        <v>1622</v>
       </c>
       <c r="H217" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11385,13 +11508,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1397</v>
+        <v>1406</v>
       </c>
       <c r="G218" t="s">
-        <v>1592</v>
+        <v>1623</v>
       </c>
       <c r="H218" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11411,13 +11534,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1344</v>
+        <v>1355</v>
       </c>
       <c r="G219" t="s">
-        <v>1593</v>
+        <v>1624</v>
       </c>
       <c r="H219" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11437,13 +11560,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1390</v>
+        <v>1400</v>
       </c>
       <c r="G220" t="s">
-        <v>1594</v>
+        <v>1625</v>
       </c>
       <c r="H220" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11463,13 +11586,13 @@
         <v>1313</v>
       </c>
       <c r="F221" t="s">
-        <v>1398</v>
+        <v>1407</v>
       </c>
       <c r="G221" t="s">
-        <v>1595</v>
+        <v>1626</v>
       </c>
       <c r="H221" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11489,13 +11612,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1362</v>
+        <v>1367</v>
       </c>
       <c r="G222" t="s">
-        <v>1596</v>
+        <v>1627</v>
       </c>
       <c r="H222" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11515,13 +11638,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1399</v>
+        <v>1408</v>
       </c>
       <c r="G223" t="s">
-        <v>1597</v>
+        <v>1628</v>
       </c>
       <c r="H223" t="s">
-        <v>1776</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11541,13 +11664,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1400</v>
+        <v>1409</v>
       </c>
       <c r="G224" t="s">
-        <v>1598</v>
+        <v>1629</v>
       </c>
       <c r="H224" t="s">
-        <v>1777</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11573,7 +11696,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11596,10 +11719,10 @@
         <v>1276</v>
       </c>
       <c r="G226" t="s">
-        <v>931</v>
+        <v>1576</v>
       </c>
       <c r="H226" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11619,13 +11742,13 @@
         <v>1285</v>
       </c>
       <c r="F227" t="s">
-        <v>1285</v>
+        <v>1389</v>
       </c>
       <c r="G227" t="s">
-        <v>1089</v>
+        <v>1630</v>
       </c>
       <c r="H227" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11648,10 +11771,10 @@
         <v>1285</v>
       </c>
       <c r="G228" t="s">
-        <v>1599</v>
+        <v>1631</v>
       </c>
       <c r="H228" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11677,7 +11800,7 @@
         <v>947</v>
       </c>
       <c r="H229" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11697,13 +11820,13 @@
         <v>1294</v>
       </c>
       <c r="F230" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G230" t="s">
-        <v>1518</v>
+        <v>1632</v>
       </c>
       <c r="H230" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11726,10 +11849,10 @@
         <v>1276</v>
       </c>
       <c r="G231" t="s">
-        <v>947</v>
+        <v>1633</v>
       </c>
       <c r="H231" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11752,10 +11875,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1600</v>
+        <v>1634</v>
       </c>
       <c r="H232" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11775,13 +11898,13 @@
         <v>1315</v>
       </c>
       <c r="F233" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="G233" t="s">
-        <v>1601</v>
+        <v>1635</v>
       </c>
       <c r="H233" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11801,13 +11924,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="G234" t="s">
-        <v>1602</v>
+        <v>1636</v>
       </c>
       <c r="H234" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11830,10 +11953,10 @@
         <v>1347</v>
       </c>
       <c r="G235" t="s">
-        <v>1603</v>
+        <v>1637</v>
       </c>
       <c r="H235" t="s">
-        <v>1760</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11853,13 +11976,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1401</v>
+        <v>1372</v>
       </c>
       <c r="G236" t="s">
-        <v>1604</v>
+        <v>1638</v>
       </c>
       <c r="H236" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11879,13 +12002,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1276</v>
+        <v>1397</v>
       </c>
       <c r="G237" t="s">
-        <v>931</v>
+        <v>1639</v>
       </c>
       <c r="H237" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11905,13 +12028,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1402</v>
+        <v>1410</v>
       </c>
       <c r="G238" t="s">
-        <v>1605</v>
+        <v>1640</v>
       </c>
       <c r="H238" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11931,13 +12054,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G239" t="s">
-        <v>1606</v>
+        <v>1641</v>
       </c>
       <c r="H239" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11957,13 +12080,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1403</v>
+        <v>1411</v>
       </c>
       <c r="G240" t="s">
-        <v>1607</v>
+        <v>1642</v>
       </c>
       <c r="H240" t="s">
-        <v>1765</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11983,13 +12106,13 @@
         <v>1285</v>
       </c>
       <c r="F241" t="s">
-        <v>1387</v>
+        <v>1372</v>
       </c>
       <c r="G241" t="s">
-        <v>1608</v>
+        <v>1643</v>
       </c>
       <c r="H241" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12009,13 +12132,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1404</v>
+        <v>1412</v>
       </c>
       <c r="G242" t="s">
-        <v>1609</v>
+        <v>1644</v>
       </c>
       <c r="H242" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12041,7 +12164,7 @@
         <v>947</v>
       </c>
       <c r="H243" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12067,7 +12190,7 @@
         <v>931</v>
       </c>
       <c r="H244" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12093,7 +12216,7 @@
         <v>947</v>
       </c>
       <c r="H245" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12119,7 +12242,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12138,8 +12261,14 @@
       <c r="E247" t="s">
         <v>1310</v>
       </c>
+      <c r="F247" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G247" t="s">
+        <v>1645</v>
+      </c>
       <c r="H247" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12159,13 +12288,13 @@
         <v>1276</v>
       </c>
       <c r="F248" t="s">
-        <v>1405</v>
+        <v>1413</v>
       </c>
       <c r="G248" t="s">
-        <v>1610</v>
+        <v>1646</v>
       </c>
       <c r="H248" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12185,13 +12314,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="G249" t="s">
-        <v>1611</v>
+        <v>1647</v>
       </c>
       <c r="H249" t="s">
-        <v>1759</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12214,10 +12343,10 @@
         <v>1278</v>
       </c>
       <c r="G250" t="s">
-        <v>959</v>
+        <v>1648</v>
       </c>
       <c r="H250" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12240,10 +12369,10 @@
         <v>1347</v>
       </c>
       <c r="G251" t="s">
-        <v>1612</v>
+        <v>1649</v>
       </c>
       <c r="H251" t="s">
-        <v>1760</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12269,7 +12398,7 @@
         <v>1132</v>
       </c>
       <c r="H252" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12289,13 +12418,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1347</v>
+        <v>1276</v>
       </c>
       <c r="G253" t="s">
-        <v>1613</v>
+        <v>947</v>
       </c>
       <c r="H253" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12321,7 +12450,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12341,13 +12470,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1406</v>
+        <v>1414</v>
       </c>
       <c r="G255" t="s">
-        <v>1614</v>
+        <v>1650</v>
       </c>
       <c r="H255" t="s">
-        <v>1768</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12370,10 +12499,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1615</v>
+        <v>1651</v>
       </c>
       <c r="H256" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12396,10 +12525,10 @@
         <v>1337</v>
       </c>
       <c r="G257" t="s">
-        <v>1446</v>
+        <v>1462</v>
       </c>
       <c r="H257" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12419,13 +12548,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1407</v>
+        <v>1375</v>
       </c>
       <c r="G258" t="s">
-        <v>1616</v>
+        <v>1652</v>
       </c>
       <c r="H258" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12445,13 +12574,13 @@
         <v>1285</v>
       </c>
       <c r="F259" t="s">
-        <v>1369</v>
+        <v>1379</v>
       </c>
       <c r="G259" t="s">
-        <v>1617</v>
+        <v>1653</v>
       </c>
       <c r="H259" t="s">
-        <v>1760</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12474,10 +12603,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1615</v>
+        <v>1651</v>
       </c>
       <c r="H260" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12503,7 +12632,7 @@
         <v>1138</v>
       </c>
       <c r="H261" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12529,7 +12658,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12549,13 +12678,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1359</v>
+        <v>1415</v>
       </c>
       <c r="G263" t="s">
-        <v>1618</v>
+        <v>1654</v>
       </c>
       <c r="H263" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12581,7 +12710,7 @@
         <v>1160</v>
       </c>
       <c r="H264" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12601,13 +12730,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1408</v>
+        <v>1416</v>
       </c>
       <c r="G265" t="s">
-        <v>1619</v>
+        <v>1655</v>
       </c>
       <c r="H265" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12627,13 +12756,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1409</v>
+        <v>1417</v>
       </c>
       <c r="G266" t="s">
-        <v>1620</v>
+        <v>1656</v>
       </c>
       <c r="H266" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12653,13 +12782,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="G267" t="s">
-        <v>1621</v>
+        <v>1657</v>
       </c>
       <c r="H267" t="s">
-        <v>1760</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12679,13 +12808,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="G268" t="s">
-        <v>1622</v>
+        <v>1658</v>
       </c>
       <c r="H268" t="s">
-        <v>1764</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12705,13 +12834,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1378</v>
+        <v>1389</v>
       </c>
       <c r="G269" t="s">
-        <v>1623</v>
+        <v>1659</v>
       </c>
       <c r="H269" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12731,13 +12860,13 @@
         <v>1276</v>
       </c>
       <c r="F270" t="s">
-        <v>1294</v>
+        <v>1354</v>
       </c>
       <c r="G270" t="s">
-        <v>1624</v>
+        <v>1660</v>
       </c>
       <c r="H270" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12757,13 +12886,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="G271" t="s">
-        <v>1625</v>
+        <v>1661</v>
       </c>
       <c r="H271" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12783,13 +12912,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1410</v>
+        <v>1418</v>
       </c>
       <c r="G272" t="s">
-        <v>1626</v>
+        <v>1662</v>
       </c>
       <c r="H272" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12812,10 +12941,10 @@
         <v>1345</v>
       </c>
       <c r="G273" t="s">
-        <v>1627</v>
+        <v>1663</v>
       </c>
       <c r="H273" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12835,13 +12964,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="G274" t="s">
-        <v>1628</v>
+        <v>1664</v>
       </c>
       <c r="H274" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12861,13 +12990,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1411</v>
+        <v>1419</v>
       </c>
       <c r="G275" t="s">
-        <v>1629</v>
+        <v>1665</v>
       </c>
       <c r="H275" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12890,10 +13019,10 @@
         <v>1285</v>
       </c>
       <c r="G276" t="s">
-        <v>1630</v>
+        <v>1666</v>
       </c>
       <c r="H276" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12916,10 +13045,10 @@
         <v>1338</v>
       </c>
       <c r="G277" t="s">
-        <v>1631</v>
+        <v>1667</v>
       </c>
       <c r="H277" t="s">
-        <v>1768</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12939,13 +13068,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1412</v>
+        <v>1367</v>
       </c>
       <c r="G278" t="s">
-        <v>1632</v>
+        <v>1603</v>
       </c>
       <c r="H278" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12964,8 +13093,14 @@
       <c r="E279" t="s">
         <v>1276</v>
       </c>
+      <c r="F279" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G279" t="s">
+        <v>1022</v>
+      </c>
       <c r="H279" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12985,13 +13120,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1378</v>
+        <v>1278</v>
       </c>
       <c r="G280" t="s">
-        <v>1633</v>
+        <v>1668</v>
       </c>
       <c r="H280" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13011,13 +13146,13 @@
         <v>1276</v>
       </c>
       <c r="F281" t="s">
-        <v>1278</v>
+        <v>1382</v>
       </c>
       <c r="G281" t="s">
-        <v>1634</v>
+        <v>1669</v>
       </c>
       <c r="H281" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13037,13 +13172,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="G282" t="s">
-        <v>1635</v>
+        <v>1670</v>
       </c>
       <c r="H282" t="s">
-        <v>1768</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13069,7 +13204,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13089,13 +13224,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1413</v>
+        <v>1420</v>
       </c>
       <c r="G284" t="s">
-        <v>1636</v>
+        <v>1671</v>
       </c>
       <c r="H284" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13115,13 +13250,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1414</v>
+        <v>1421</v>
       </c>
       <c r="G285" t="s">
-        <v>1637</v>
+        <v>1672</v>
       </c>
       <c r="H285" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13141,13 +13276,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1415</v>
+        <v>1422</v>
       </c>
       <c r="G286" t="s">
-        <v>1638</v>
+        <v>1673</v>
       </c>
       <c r="H286" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13173,7 +13308,7 @@
         <v>933</v>
       </c>
       <c r="H287" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13193,13 +13328,13 @@
         <v>1276</v>
       </c>
       <c r="F288" t="s">
-        <v>1399</v>
+        <v>1423</v>
       </c>
       <c r="G288" t="s">
-        <v>1639</v>
+        <v>1674</v>
       </c>
       <c r="H288" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13219,13 +13354,13 @@
         <v>1285</v>
       </c>
       <c r="F289" t="s">
-        <v>1416</v>
+        <v>1424</v>
       </c>
       <c r="G289" t="s">
-        <v>1640</v>
+        <v>1675</v>
       </c>
       <c r="H289" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13248,10 +13383,10 @@
         <v>1371</v>
       </c>
       <c r="G290" t="s">
-        <v>1641</v>
+        <v>1676</v>
       </c>
       <c r="H290" t="s">
-        <v>1764</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13274,10 +13409,10 @@
         <v>1342</v>
       </c>
       <c r="G291" t="s">
-        <v>1642</v>
+        <v>1677</v>
       </c>
       <c r="H291" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13297,13 +13432,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1417</v>
+        <v>1425</v>
       </c>
       <c r="G292" t="s">
-        <v>1643</v>
+        <v>1678</v>
       </c>
       <c r="H292" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13326,10 +13461,10 @@
         <v>1278</v>
       </c>
       <c r="G293" t="s">
-        <v>1199</v>
+        <v>1679</v>
       </c>
       <c r="H293" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13355,7 +13490,7 @@
         <v>1089</v>
       </c>
       <c r="H294" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13375,13 +13510,13 @@
         <v>1276</v>
       </c>
       <c r="F295" t="s">
-        <v>1276</v>
+        <v>1342</v>
       </c>
       <c r="G295" t="s">
-        <v>947</v>
+        <v>1680</v>
       </c>
       <c r="H295" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13407,7 +13542,7 @@
         <v>947</v>
       </c>
       <c r="H296" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13427,13 +13562,13 @@
         <v>1285</v>
       </c>
       <c r="F297" t="s">
-        <v>1344</v>
+        <v>1355</v>
       </c>
       <c r="G297" t="s">
-        <v>1644</v>
+        <v>1681</v>
       </c>
       <c r="H297" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13453,13 +13588,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1387</v>
+        <v>1372</v>
       </c>
       <c r="G298" t="s">
-        <v>1645</v>
+        <v>1682</v>
       </c>
       <c r="H298" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13485,7 +13620,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13504,8 +13639,14 @@
       <c r="E300" t="s">
         <v>1276</v>
       </c>
+      <c r="F300" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G300" t="s">
+        <v>951</v>
+      </c>
       <c r="H300" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13528,10 +13669,10 @@
         <v>1276</v>
       </c>
       <c r="G301" t="s">
-        <v>1646</v>
+        <v>1683</v>
       </c>
       <c r="H301" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13554,10 +13695,10 @@
         <v>1345</v>
       </c>
       <c r="G302" t="s">
-        <v>1647</v>
+        <v>1684</v>
       </c>
       <c r="H302" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13577,13 +13718,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1418</v>
+        <v>1426</v>
       </c>
       <c r="G303" t="s">
-        <v>1648</v>
+        <v>1685</v>
       </c>
       <c r="H303" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13609,7 +13750,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13635,7 +13776,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13655,13 +13796,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1362</v>
+        <v>1367</v>
       </c>
       <c r="G306" t="s">
-        <v>1649</v>
+        <v>1686</v>
       </c>
       <c r="H306" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13687,7 +13828,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13710,10 +13851,10 @@
         <v>1278</v>
       </c>
       <c r="G308" t="s">
-        <v>1650</v>
+        <v>1687</v>
       </c>
       <c r="H308" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13733,13 +13874,13 @@
         <v>1300</v>
       </c>
       <c r="F309" t="s">
-        <v>1419</v>
+        <v>1427</v>
       </c>
       <c r="G309" t="s">
-        <v>1651</v>
+        <v>1688</v>
       </c>
       <c r="H309" t="s">
-        <v>1757</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13765,7 +13906,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13788,10 +13929,10 @@
         <v>1278</v>
       </c>
       <c r="G311" t="s">
-        <v>1652</v>
+        <v>1689</v>
       </c>
       <c r="H311" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13817,7 +13958,7 @@
         <v>1089</v>
       </c>
       <c r="H312" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13837,13 +13978,13 @@
         <v>1276</v>
       </c>
       <c r="F313" t="s">
-        <v>1347</v>
+        <v>1276</v>
       </c>
       <c r="G313" t="s">
-        <v>1653</v>
+        <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13869,7 +14010,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13889,13 +14030,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1420</v>
+        <v>1428</v>
       </c>
       <c r="G315" t="s">
-        <v>1654</v>
+        <v>1690</v>
       </c>
       <c r="H315" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13915,13 +14056,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1338</v>
+        <v>1348</v>
       </c>
       <c r="G316" t="s">
-        <v>1655</v>
+        <v>1691</v>
       </c>
       <c r="H316" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13947,7 +14088,7 @@
         <v>947</v>
       </c>
       <c r="H317" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13973,7 +14114,7 @@
         <v>933</v>
       </c>
       <c r="H318" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -13992,8 +14133,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14019,7 +14166,7 @@
         <v>1089</v>
       </c>
       <c r="H320" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14042,10 +14189,10 @@
         <v>1337</v>
       </c>
       <c r="G321" t="s">
-        <v>1656</v>
+        <v>1692</v>
       </c>
       <c r="H321" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14065,13 +14212,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G322" t="s">
-        <v>1657</v>
+        <v>1693</v>
       </c>
       <c r="H322" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14091,13 +14238,13 @@
         <v>1310</v>
       </c>
       <c r="F323" t="s">
-        <v>1421</v>
+        <v>1429</v>
       </c>
       <c r="G323" t="s">
-        <v>1658</v>
+        <v>1694</v>
       </c>
       <c r="H323" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14117,13 +14264,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="G324" t="s">
-        <v>1659</v>
+        <v>1695</v>
       </c>
       <c r="H324" t="s">
-        <v>1763</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14149,7 +14296,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14175,7 +14322,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14195,13 +14342,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1422</v>
+        <v>1430</v>
       </c>
       <c r="G327" t="s">
-        <v>1660</v>
+        <v>1696</v>
       </c>
       <c r="H327" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14221,13 +14368,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1387</v>
+        <v>1431</v>
       </c>
       <c r="G328" t="s">
-        <v>1661</v>
+        <v>1697</v>
       </c>
       <c r="H328" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14247,13 +14394,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1423</v>
+        <v>1350</v>
       </c>
       <c r="G329" t="s">
-        <v>1662</v>
+        <v>1698</v>
       </c>
       <c r="H329" t="s">
-        <v>1778</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14273,13 +14420,13 @@
         <v>1285</v>
       </c>
       <c r="F330" t="s">
-        <v>1355</v>
+        <v>1381</v>
       </c>
       <c r="G330" t="s">
-        <v>1663</v>
+        <v>1699</v>
       </c>
       <c r="H330" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14299,13 +14446,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1420</v>
+        <v>1432</v>
       </c>
       <c r="G331" t="s">
-        <v>1664</v>
+        <v>1700</v>
       </c>
       <c r="H331" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14325,13 +14472,13 @@
         <v>1285</v>
       </c>
       <c r="F332" t="s">
-        <v>1387</v>
+        <v>1372</v>
       </c>
       <c r="G332" t="s">
-        <v>1665</v>
+        <v>1701</v>
       </c>
       <c r="H332" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14354,10 +14501,10 @@
         <v>1276</v>
       </c>
       <c r="G333" t="s">
-        <v>931</v>
+        <v>1576</v>
       </c>
       <c r="H333" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14380,10 +14527,10 @@
         <v>1285</v>
       </c>
       <c r="G334" t="s">
-        <v>1180</v>
+        <v>1702</v>
       </c>
       <c r="H334" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14403,13 +14550,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1278</v>
+        <v>1368</v>
       </c>
       <c r="G335" t="s">
-        <v>1666</v>
+        <v>1703</v>
       </c>
       <c r="H335" t="s">
-        <v>1768</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14429,13 +14576,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1424</v>
+        <v>1433</v>
       </c>
       <c r="G336" t="s">
-        <v>1667</v>
+        <v>1704</v>
       </c>
       <c r="H336" t="s">
-        <v>1757</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14458,10 +14605,10 @@
         <v>1342</v>
       </c>
       <c r="G337" t="s">
-        <v>1668</v>
+        <v>1705</v>
       </c>
       <c r="H337" t="s">
-        <v>1763</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14481,13 +14628,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1425</v>
+        <v>1434</v>
       </c>
       <c r="G338" t="s">
-        <v>1669</v>
+        <v>1706</v>
       </c>
       <c r="H338" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14513,7 +14660,7 @@
         <v>1089</v>
       </c>
       <c r="H339" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14536,10 +14683,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1670</v>
+        <v>1707</v>
       </c>
       <c r="H340" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14562,10 +14709,10 @@
         <v>1345</v>
       </c>
       <c r="G341" t="s">
-        <v>1671</v>
+        <v>1708</v>
       </c>
       <c r="H341" t="s">
-        <v>1779</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14591,7 +14738,7 @@
         <v>947</v>
       </c>
       <c r="H342" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14611,13 +14758,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1369</v>
+        <v>1379</v>
       </c>
       <c r="G343" t="s">
-        <v>1672</v>
+        <v>1709</v>
       </c>
       <c r="H343" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14637,13 +14784,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1426</v>
+        <v>1435</v>
       </c>
       <c r="G344" t="s">
-        <v>1673</v>
+        <v>1710</v>
       </c>
       <c r="H344" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14663,13 +14810,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1406</v>
+        <v>1344</v>
       </c>
       <c r="G345" t="s">
-        <v>1674</v>
+        <v>1711</v>
       </c>
       <c r="H345" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14695,7 +14842,7 @@
         <v>1089</v>
       </c>
       <c r="H346" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14715,13 +14862,13 @@
         <v>1276</v>
       </c>
       <c r="F347" t="s">
-        <v>1417</v>
+        <v>1425</v>
       </c>
       <c r="G347" t="s">
-        <v>1675</v>
+        <v>1712</v>
       </c>
       <c r="H347" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14740,8 +14887,14 @@
       <c r="E348" t="s">
         <v>1276</v>
       </c>
+      <c r="F348" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G348" t="s">
+        <v>951</v>
+      </c>
       <c r="H348" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14767,7 +14920,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14787,13 +14940,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1427</v>
+        <v>1436</v>
       </c>
       <c r="G350" t="s">
-        <v>1676</v>
+        <v>1713</v>
       </c>
       <c r="H350" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14816,10 +14969,10 @@
         <v>1345</v>
       </c>
       <c r="G351" t="s">
-        <v>1627</v>
+        <v>1663</v>
       </c>
       <c r="H351" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14839,13 +14992,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1428</v>
+        <v>1437</v>
       </c>
       <c r="G352" t="s">
-        <v>1677</v>
+        <v>1714</v>
       </c>
       <c r="H352" t="s">
-        <v>1767</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14865,13 +15018,13 @@
         <v>1285</v>
       </c>
       <c r="F353" t="s">
-        <v>1429</v>
+        <v>1438</v>
       </c>
       <c r="G353" t="s">
-        <v>1678</v>
+        <v>1715</v>
       </c>
       <c r="H353" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14890,14 +15043,8 @@
       <c r="E354" t="s">
         <v>1276</v>
       </c>
-      <c r="F354" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G354" t="s">
-        <v>1679</v>
-      </c>
       <c r="H354" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14920,10 +15067,10 @@
         <v>1347</v>
       </c>
       <c r="G355" t="s">
-        <v>1680</v>
+        <v>1716</v>
       </c>
       <c r="H355" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14949,7 +15096,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1760</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14969,13 +15116,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
       <c r="G357" t="s">
-        <v>1681</v>
+        <v>1717</v>
       </c>
       <c r="H357" t="s">
-        <v>1780</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -14998,10 +15145,10 @@
         <v>1276</v>
       </c>
       <c r="G358" t="s">
-        <v>947</v>
+        <v>1633</v>
       </c>
       <c r="H358" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15021,13 +15168,13 @@
         <v>1298</v>
       </c>
       <c r="F359" t="s">
-        <v>1378</v>
+        <v>1389</v>
       </c>
       <c r="G359" t="s">
-        <v>1682</v>
+        <v>1718</v>
       </c>
       <c r="H359" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15050,10 +15197,10 @@
         <v>1278</v>
       </c>
       <c r="G360" t="s">
-        <v>1199</v>
+        <v>1679</v>
       </c>
       <c r="H360" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15073,13 +15220,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1420</v>
+        <v>1428</v>
       </c>
       <c r="G361" t="s">
-        <v>1683</v>
+        <v>1719</v>
       </c>
       <c r="H361" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15105,7 +15252,7 @@
         <v>1240</v>
       </c>
       <c r="H362" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15125,13 +15272,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
       <c r="G363" t="s">
-        <v>1684</v>
+        <v>1720</v>
       </c>
       <c r="H363" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15154,10 +15301,10 @@
         <v>1337</v>
       </c>
       <c r="G364" t="s">
-        <v>1685</v>
+        <v>1721</v>
       </c>
       <c r="H364" t="s">
-        <v>1760</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15180,10 +15327,10 @@
         <v>1337</v>
       </c>
       <c r="G365" t="s">
-        <v>1686</v>
+        <v>1722</v>
       </c>
       <c r="H365" t="s">
-        <v>1781</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15209,7 +15356,7 @@
         <v>1089</v>
       </c>
       <c r="H366" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15235,7 +15382,7 @@
         <v>933</v>
       </c>
       <c r="H367" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15255,13 +15402,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1387</v>
+        <v>1372</v>
       </c>
       <c r="G368" t="s">
-        <v>1687</v>
+        <v>1723</v>
       </c>
       <c r="H368" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15284,10 +15431,10 @@
         <v>1338</v>
       </c>
       <c r="G369" t="s">
-        <v>1688</v>
+        <v>1724</v>
       </c>
       <c r="H369" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15307,13 +15454,13 @@
         <v>1285</v>
       </c>
       <c r="F370" t="s">
-        <v>1407</v>
+        <v>1375</v>
       </c>
       <c r="G370" t="s">
-        <v>1689</v>
+        <v>1725</v>
       </c>
       <c r="H370" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15333,13 +15480,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="G371" t="s">
-        <v>1690</v>
+        <v>1726</v>
       </c>
       <c r="H371" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15359,13 +15506,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1387</v>
+        <v>1372</v>
       </c>
       <c r="G372" t="s">
-        <v>1691</v>
+        <v>1727</v>
       </c>
       <c r="H372" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15385,13 +15532,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="G373" t="s">
-        <v>1692</v>
+        <v>1728</v>
       </c>
       <c r="H373" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15414,10 +15561,10 @@
         <v>1285</v>
       </c>
       <c r="G374" t="s">
-        <v>1693</v>
+        <v>1729</v>
       </c>
       <c r="H374" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15440,10 +15587,10 @@
         <v>1285</v>
       </c>
       <c r="G375" t="s">
-        <v>1211</v>
+        <v>1730</v>
       </c>
       <c r="H375" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15463,13 +15610,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="G376" t="s">
-        <v>1694</v>
+        <v>1731</v>
       </c>
       <c r="H376" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15489,13 +15636,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1431</v>
+        <v>1441</v>
       </c>
       <c r="G377" t="s">
-        <v>1695</v>
+        <v>1732</v>
       </c>
       <c r="H377" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15515,13 +15662,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1337</v>
+        <v>1424</v>
       </c>
       <c r="G378" t="s">
-        <v>1696</v>
+        <v>1733</v>
       </c>
       <c r="H378" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15541,13 +15688,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1432</v>
+        <v>1442</v>
       </c>
       <c r="G379" t="s">
-        <v>1697</v>
+        <v>1734</v>
       </c>
       <c r="H379" t="s">
-        <v>1765</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15573,7 +15720,7 @@
         <v>1065</v>
       </c>
       <c r="H380" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15593,13 +15740,13 @@
         <v>1322</v>
       </c>
       <c r="F381" t="s">
-        <v>1433</v>
+        <v>1443</v>
       </c>
       <c r="G381" t="s">
-        <v>1698</v>
+        <v>1735</v>
       </c>
       <c r="H381" t="s">
-        <v>1757</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15619,13 +15766,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1434</v>
+        <v>1444</v>
       </c>
       <c r="G382" t="s">
-        <v>1699</v>
+        <v>1736</v>
       </c>
       <c r="H382" t="s">
-        <v>1782</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15645,13 +15792,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1435</v>
+        <v>1445</v>
       </c>
       <c r="G383" t="s">
-        <v>1700</v>
+        <v>1737</v>
       </c>
       <c r="H383" t="s">
-        <v>1773</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15671,13 +15818,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1384</v>
+        <v>1446</v>
       </c>
       <c r="G384" t="s">
-        <v>1701</v>
+        <v>1738</v>
       </c>
       <c r="H384" t="s">
-        <v>1757</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15700,10 +15847,10 @@
         <v>1345</v>
       </c>
       <c r="G385" t="s">
-        <v>1702</v>
+        <v>1739</v>
       </c>
       <c r="H385" t="s">
-        <v>1772</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15723,13 +15870,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1436</v>
+        <v>1447</v>
       </c>
       <c r="G386" t="s">
-        <v>1703</v>
+        <v>1740</v>
       </c>
       <c r="H386" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15755,7 +15902,7 @@
         <v>996</v>
       </c>
       <c r="H387" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15775,13 +15922,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1353</v>
+        <v>1448</v>
       </c>
       <c r="G388" t="s">
-        <v>1704</v>
+        <v>1741</v>
       </c>
       <c r="H388" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15807,7 +15954,7 @@
         <v>1065</v>
       </c>
       <c r="H389" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15830,10 +15977,10 @@
         <v>1338</v>
       </c>
       <c r="G390" t="s">
-        <v>1705</v>
+        <v>1742</v>
       </c>
       <c r="H390" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15853,13 +16000,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="G391" t="s">
-        <v>1706</v>
+        <v>1743</v>
       </c>
       <c r="H391" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15879,13 +16026,13 @@
         <v>1285</v>
       </c>
       <c r="F392" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
       <c r="G392" t="s">
-        <v>1707</v>
+        <v>1744</v>
       </c>
       <c r="H392" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15911,7 +16058,7 @@
         <v>1046</v>
       </c>
       <c r="H393" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15931,13 +16078,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1285</v>
+        <v>1372</v>
       </c>
       <c r="G394" t="s">
-        <v>1089</v>
+        <v>1745</v>
       </c>
       <c r="H394" t="s">
-        <v>1767</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15963,7 +16110,7 @@
         <v>1089</v>
       </c>
       <c r="H395" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -15983,13 +16130,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1387</v>
+        <v>1285</v>
       </c>
       <c r="G396" t="s">
-        <v>1708</v>
+        <v>1065</v>
       </c>
       <c r="H396" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16009,13 +16156,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="G397" t="s">
-        <v>1694</v>
+        <v>1731</v>
       </c>
       <c r="H397" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16035,13 +16182,13 @@
         <v>1294</v>
       </c>
       <c r="F398" t="s">
-        <v>1366</v>
+        <v>1343</v>
       </c>
       <c r="G398" t="s">
-        <v>1709</v>
+        <v>1746</v>
       </c>
       <c r="H398" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16067,7 +16214,7 @@
         <v>968</v>
       </c>
       <c r="H399" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16087,13 +16234,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="G400" t="s">
-        <v>1507</v>
+        <v>1529</v>
       </c>
       <c r="H400" t="s">
-        <v>1783</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16116,10 +16263,10 @@
         <v>1278</v>
       </c>
       <c r="G401" t="s">
-        <v>1227</v>
+        <v>1747</v>
       </c>
       <c r="H401" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16142,10 +16289,10 @@
         <v>1337</v>
       </c>
       <c r="G402" t="s">
-        <v>1710</v>
+        <v>1748</v>
       </c>
       <c r="H402" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16165,13 +16312,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="G403" t="s">
-        <v>1711</v>
+        <v>1749</v>
       </c>
       <c r="H403" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16194,10 +16341,10 @@
         <v>1338</v>
       </c>
       <c r="G404" t="s">
-        <v>1712</v>
+        <v>1750</v>
       </c>
       <c r="H404" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16220,10 +16367,10 @@
         <v>1337</v>
       </c>
       <c r="G405" t="s">
-        <v>1500</v>
+        <v>1522</v>
       </c>
       <c r="H405" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16249,7 +16396,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16269,13 +16416,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1438</v>
+        <v>1450</v>
       </c>
       <c r="G407" t="s">
-        <v>1713</v>
+        <v>1751</v>
       </c>
       <c r="H407" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16295,13 +16442,13 @@
         <v>1285</v>
       </c>
       <c r="F408" t="s">
-        <v>1285</v>
+        <v>1451</v>
       </c>
       <c r="G408" t="s">
-        <v>964</v>
+        <v>1752</v>
       </c>
       <c r="H408" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16324,10 +16471,10 @@
         <v>1278</v>
       </c>
       <c r="G409" t="s">
-        <v>968</v>
+        <v>1753</v>
       </c>
       <c r="H409" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16353,7 +16500,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16373,13 +16520,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1426</v>
+        <v>1435</v>
       </c>
       <c r="G411" t="s">
-        <v>1714</v>
+        <v>1754</v>
       </c>
       <c r="H411" t="s">
-        <v>1770</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16399,13 +16546,13 @@
         <v>1285</v>
       </c>
       <c r="F412" t="s">
-        <v>1439</v>
+        <v>1432</v>
       </c>
       <c r="G412" t="s">
-        <v>1715</v>
+        <v>1755</v>
       </c>
       <c r="H412" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16425,13 +16572,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1406</v>
+        <v>1344</v>
       </c>
       <c r="G413" t="s">
-        <v>1716</v>
+        <v>1756</v>
       </c>
       <c r="H413" t="s">
-        <v>1769</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16454,10 +16601,10 @@
         <v>1338</v>
       </c>
       <c r="G414" t="s">
-        <v>1717</v>
+        <v>1757</v>
       </c>
       <c r="H414" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16477,13 +16624,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1402</v>
+        <v>1452</v>
       </c>
       <c r="G415" t="s">
-        <v>1718</v>
+        <v>1758</v>
       </c>
       <c r="H415" t="s">
-        <v>1784</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16509,7 +16656,7 @@
         <v>1240</v>
       </c>
       <c r="H416" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16532,10 +16679,10 @@
         <v>1285</v>
       </c>
       <c r="G417" t="s">
-        <v>1241</v>
+        <v>1759</v>
       </c>
       <c r="H417" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16558,10 +16705,10 @@
         <v>1338</v>
       </c>
       <c r="G418" t="s">
-        <v>1719</v>
+        <v>1760</v>
       </c>
       <c r="H418" t="s">
-        <v>1771</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16581,13 +16728,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1386</v>
+        <v>1397</v>
       </c>
       <c r="G419" t="s">
-        <v>1720</v>
+        <v>1761</v>
       </c>
       <c r="H419" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16607,13 +16754,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1341</v>
+        <v>1348</v>
       </c>
       <c r="G420" t="s">
-        <v>1721</v>
+        <v>1762</v>
       </c>
       <c r="H420" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16633,13 +16780,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1420</v>
+        <v>1428</v>
       </c>
       <c r="G421" t="s">
-        <v>1722</v>
+        <v>1763</v>
       </c>
       <c r="H421" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16662,10 +16809,10 @@
         <v>1278</v>
       </c>
       <c r="G422" t="s">
-        <v>933</v>
+        <v>1487</v>
       </c>
       <c r="H422" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16691,7 +16838,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16717,7 +16864,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16737,13 +16884,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1420</v>
+        <v>1432</v>
       </c>
       <c r="G425" t="s">
-        <v>1723</v>
+        <v>1764</v>
       </c>
       <c r="H425" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16763,13 +16910,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1417</v>
+        <v>1425</v>
       </c>
       <c r="G426" t="s">
-        <v>1724</v>
+        <v>1765</v>
       </c>
       <c r="H426" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16789,13 +16936,13 @@
         <v>1285</v>
       </c>
       <c r="F427" t="s">
-        <v>1387</v>
+        <v>1285</v>
       </c>
       <c r="G427" t="s">
-        <v>1725</v>
+        <v>1730</v>
       </c>
       <c r="H427" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16818,10 +16965,10 @@
         <v>1278</v>
       </c>
       <c r="G428" t="s">
-        <v>1726</v>
+        <v>1766</v>
       </c>
       <c r="H428" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16841,13 +16988,13 @@
         <v>1285</v>
       </c>
       <c r="F429" t="s">
-        <v>1440</v>
+        <v>1453</v>
       </c>
       <c r="G429" t="s">
-        <v>1727</v>
+        <v>1767</v>
       </c>
       <c r="H429" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16870,10 +17017,10 @@
         <v>1338</v>
       </c>
       <c r="G430" t="s">
-        <v>1728</v>
+        <v>1768</v>
       </c>
       <c r="H430" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16893,13 +17040,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1387</v>
+        <v>1372</v>
       </c>
       <c r="G431" t="s">
-        <v>1729</v>
+        <v>1769</v>
       </c>
       <c r="H431" t="s">
-        <v>1785</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16919,13 +17066,13 @@
         <v>1297</v>
       </c>
       <c r="F432" t="s">
-        <v>1366</v>
+        <v>1355</v>
       </c>
       <c r="G432" t="s">
-        <v>1730</v>
+        <v>1770</v>
       </c>
       <c r="H432" t="s">
-        <v>1760</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16951,7 +17098,7 @@
         <v>968</v>
       </c>
       <c r="H433" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16974,10 +17121,10 @@
         <v>1337</v>
       </c>
       <c r="G434" t="s">
-        <v>1731</v>
+        <v>1771</v>
       </c>
       <c r="H434" t="s">
-        <v>1781</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -16997,13 +17144,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1441</v>
+        <v>1454</v>
       </c>
       <c r="G435" t="s">
-        <v>1732</v>
+        <v>1772</v>
       </c>
       <c r="H435" t="s">
-        <v>1772</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17026,10 +17173,10 @@
         <v>1276</v>
       </c>
       <c r="G436" t="s">
-        <v>947</v>
+        <v>1633</v>
       </c>
       <c r="H436" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17052,10 +17199,10 @@
         <v>1278</v>
       </c>
       <c r="G437" t="s">
-        <v>1733</v>
+        <v>1773</v>
       </c>
       <c r="H437" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17081,7 +17228,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17104,10 +17251,10 @@
         <v>1278</v>
       </c>
       <c r="G439" t="s">
-        <v>1518</v>
+        <v>1774</v>
       </c>
       <c r="H439" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17133,7 +17280,7 @@
         <v>1227</v>
       </c>
       <c r="H440" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17153,13 +17300,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1442</v>
+        <v>1455</v>
       </c>
       <c r="G441" t="s">
-        <v>1734</v>
+        <v>1775</v>
       </c>
       <c r="H441" t="s">
-        <v>1757</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17179,13 +17326,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1402</v>
+        <v>1410</v>
       </c>
       <c r="G442" t="s">
-        <v>1735</v>
+        <v>1776</v>
       </c>
       <c r="H442" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17208,10 +17355,10 @@
         <v>1294</v>
       </c>
       <c r="G443" t="s">
-        <v>1736</v>
+        <v>1777</v>
       </c>
       <c r="H443" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17231,13 +17378,13 @@
         <v>1279</v>
       </c>
       <c r="F444" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="G444" t="s">
-        <v>1737</v>
+        <v>1778</v>
       </c>
       <c r="H444" t="s">
-        <v>1760</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17257,13 +17404,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="G445" t="s">
-        <v>1738</v>
+        <v>1779</v>
       </c>
       <c r="H445" t="s">
-        <v>1786</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17283,13 +17430,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1366</v>
+        <v>1278</v>
       </c>
       <c r="G446" t="s">
-        <v>1739</v>
+        <v>933</v>
       </c>
       <c r="H446" t="s">
-        <v>1760</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17312,10 +17459,10 @@
         <v>1338</v>
       </c>
       <c r="G447" t="s">
-        <v>1740</v>
+        <v>1780</v>
       </c>
       <c r="H447" t="s">
-        <v>1768</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17338,10 +17485,10 @@
         <v>1337</v>
       </c>
       <c r="G448" t="s">
-        <v>1741</v>
+        <v>1781</v>
       </c>
       <c r="H448" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17361,13 +17508,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="G449" t="s">
-        <v>1742</v>
+        <v>1782</v>
       </c>
       <c r="H449" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17387,13 +17534,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G450" t="s">
-        <v>968</v>
+        <v>1783</v>
       </c>
       <c r="H450" t="s">
-        <v>1755</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17413,13 +17560,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1376</v>
+        <v>1456</v>
       </c>
       <c r="G451" t="s">
-        <v>1743</v>
+        <v>1784</v>
       </c>
       <c r="H451" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17439,13 +17586,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1386</v>
+        <v>1397</v>
       </c>
       <c r="G452" t="s">
-        <v>1744</v>
+        <v>1785</v>
       </c>
       <c r="H452" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17465,13 +17612,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1444</v>
+        <v>1457</v>
       </c>
       <c r="G453" t="s">
-        <v>1745</v>
+        <v>1786</v>
       </c>
       <c r="H453" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17497,7 +17644,7 @@
         <v>947</v>
       </c>
       <c r="H454" t="s">
-        <v>1773</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17517,13 +17664,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1445</v>
+        <v>1458</v>
       </c>
       <c r="G455" t="s">
-        <v>1746</v>
+        <v>1787</v>
       </c>
       <c r="H455" t="s">
-        <v>1778</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17543,13 +17690,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="G456" t="s">
-        <v>1659</v>
+        <v>1695</v>
       </c>
       <c r="H456" t="s">
-        <v>1776</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17569,13 +17716,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1348</v>
+        <v>1381</v>
       </c>
       <c r="G457" t="s">
-        <v>1747</v>
+        <v>1788</v>
       </c>
       <c r="H457" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17598,10 +17745,10 @@
         <v>1278</v>
       </c>
       <c r="G458" t="s">
-        <v>1748</v>
+        <v>1789</v>
       </c>
       <c r="H458" t="s">
-        <v>1787</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17624,10 +17771,10 @@
         <v>1294</v>
       </c>
       <c r="G459" t="s">
-        <v>1749</v>
+        <v>1790</v>
       </c>
       <c r="H459" t="s">
-        <v>1753</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17653,7 +17800,7 @@
         <v>947</v>
       </c>
       <c r="H460" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17673,13 +17820,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1378</v>
+        <v>1459</v>
       </c>
       <c r="G461" t="s">
-        <v>1750</v>
+        <v>1791</v>
       </c>
       <c r="H461" t="s">
-        <v>1768</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17699,13 +17846,13 @@
         <v>1304</v>
       </c>
       <c r="F462" t="s">
-        <v>1359</v>
+        <v>1460</v>
       </c>
       <c r="G462" t="s">
-        <v>1751</v>
+        <v>1792</v>
       </c>
       <c r="H462" t="s">
-        <v>1754</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17728,10 +17875,10 @@
         <v>1278</v>
       </c>
       <c r="G463" t="s">
-        <v>1752</v>
+        <v>1793</v>
       </c>
       <c r="H463" t="s">
-        <v>1757</v>
+        <v>1798</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/dp-partial-ner-elmo_ori.xlsx
+++ b/Results/Categorization/dp-partial-ner-elmo_ori.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1816">
   <si>
     <t>id</t>
   </si>
@@ -4027,376 +4027,337 @@
     <t>FOOD,PRICES,FOOD</t>
   </si>
   <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
     <t>FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|SERVICE|FOOD</t>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>SERVICE|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+    <t>FOOD|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|SERVICE</t>
   </si>
   <si>
     <t>PRICES|AMBIENCE</t>
   </si>
   <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|FOOD|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|FOOD|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|SERVICE|AMBIENCE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES</t>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE|PRICES|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
+    <t>PRICES|AMBIENCE|PRICES|PRICES|FOOD</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
   </si>
   <si>
     <t>|place</t>
@@ -5907,10 +5868,10 @@
         <v>1285</v>
       </c>
       <c r="G2" t="s">
-        <v>1461</v>
+        <v>1448</v>
       </c>
       <c r="H2" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5933,10 +5894,10 @@
         <v>1337</v>
       </c>
       <c r="G3" t="s">
-        <v>1462</v>
+        <v>1449</v>
       </c>
       <c r="H3" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5962,7 +5923,7 @@
         <v>933</v>
       </c>
       <c r="H4" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5982,13 +5943,13 @@
         <v>1277</v>
       </c>
       <c r="F5" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G5" t="s">
-        <v>1463</v>
+        <v>1450</v>
       </c>
       <c r="H5" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6008,13 +5969,13 @@
         <v>1279</v>
       </c>
       <c r="F6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G6" t="s">
-        <v>1464</v>
+        <v>1451</v>
       </c>
       <c r="H6" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6034,13 +5995,13 @@
         <v>1276</v>
       </c>
       <c r="F7" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G7" t="s">
-        <v>1465</v>
+        <v>1452</v>
       </c>
       <c r="H7" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6060,13 +6021,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G8" t="s">
-        <v>1466</v>
+        <v>1453</v>
       </c>
       <c r="H8" t="s">
-        <v>1798</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6089,10 +6050,10 @@
         <v>1294</v>
       </c>
       <c r="G9" t="s">
-        <v>1467</v>
+        <v>1454</v>
       </c>
       <c r="H9" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6112,13 +6073,13 @@
         <v>1281</v>
       </c>
       <c r="F10" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G10" t="s">
-        <v>1468</v>
+        <v>1455</v>
       </c>
       <c r="H10" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6138,13 +6099,13 @@
         <v>1278</v>
       </c>
       <c r="F11" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G11" t="s">
-        <v>1469</v>
+        <v>1456</v>
       </c>
       <c r="H11" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6164,13 +6125,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G12" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
       <c r="H12" t="s">
-        <v>1798</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6190,13 +6151,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G13" t="s">
-        <v>1471</v>
+        <v>1458</v>
       </c>
       <c r="H13" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6219,10 +6180,10 @@
         <v>1337</v>
       </c>
       <c r="G14" t="s">
-        <v>1472</v>
+        <v>1459</v>
       </c>
       <c r="H14" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6242,13 +6203,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G15" t="s">
-        <v>1473</v>
+        <v>1460</v>
       </c>
       <c r="H15" t="s">
-        <v>1800</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6268,13 +6229,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="G16" t="s">
-        <v>1474</v>
+        <v>1461</v>
       </c>
       <c r="H16" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6294,13 +6255,13 @@
         <v>1277</v>
       </c>
       <c r="F17" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G17" t="s">
-        <v>1475</v>
+        <v>1462</v>
       </c>
       <c r="H17" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6320,13 +6281,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G18" t="s">
-        <v>1476</v>
+        <v>1463</v>
       </c>
       <c r="H18" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6346,7 +6307,7 @@
         <v>1278</v>
       </c>
       <c r="H19" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6372,7 +6333,7 @@
         <v>947</v>
       </c>
       <c r="H20" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6392,13 +6353,13 @@
         <v>1285</v>
       </c>
       <c r="F21" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G21" t="s">
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6418,13 +6379,13 @@
         <v>1276</v>
       </c>
       <c r="F22" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G22" t="s">
-        <v>1477</v>
+        <v>1464</v>
       </c>
       <c r="H22" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6444,13 +6405,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="G23" t="s">
-        <v>1478</v>
+        <v>1465</v>
       </c>
       <c r="H23" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6476,7 +6437,7 @@
         <v>933</v>
       </c>
       <c r="H24" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6496,13 +6457,13 @@
         <v>1276</v>
       </c>
       <c r="F25" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G25" t="s">
-        <v>1479</v>
+        <v>1466</v>
       </c>
       <c r="H25" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6522,13 +6483,13 @@
         <v>1278</v>
       </c>
       <c r="F26" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="G26" t="s">
-        <v>1480</v>
+        <v>1467</v>
       </c>
       <c r="H26" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6554,7 +6515,7 @@
         <v>996</v>
       </c>
       <c r="H27" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6574,13 +6535,13 @@
         <v>1278</v>
       </c>
       <c r="F28" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G28" t="s">
-        <v>1481</v>
+        <v>1468</v>
       </c>
       <c r="H28" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6600,13 +6561,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="G29" t="s">
-        <v>1482</v>
+        <v>1469</v>
       </c>
       <c r="H29" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6626,13 +6587,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G30" t="s">
-        <v>1483</v>
+        <v>1470</v>
       </c>
       <c r="H30" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6652,13 +6613,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G31" t="s">
-        <v>1484</v>
+        <v>1471</v>
       </c>
       <c r="H31" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6684,7 +6645,7 @@
         <v>933</v>
       </c>
       <c r="H32" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6710,7 +6671,7 @@
         <v>959</v>
       </c>
       <c r="H33" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6736,7 +6697,7 @@
         <v>933</v>
       </c>
       <c r="H34" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6756,13 +6717,13 @@
         <v>1287</v>
       </c>
       <c r="F35" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="G35" t="s">
-        <v>1485</v>
+        <v>1472</v>
       </c>
       <c r="H35" t="s">
-        <v>1802</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6782,13 +6743,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G36" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="H36" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6814,7 +6775,7 @@
         <v>962</v>
       </c>
       <c r="H37" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6837,10 +6798,10 @@
         <v>1278</v>
       </c>
       <c r="G38" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="H38" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6860,13 +6821,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G39" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="H39" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6886,13 +6847,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G40" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="H40" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6912,13 +6873,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="G41" t="s">
-        <v>1490</v>
+        <v>1477</v>
       </c>
       <c r="H41" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6938,13 +6899,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G42" t="s">
-        <v>1491</v>
+        <v>1478</v>
       </c>
       <c r="H42" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6964,13 +6925,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1337</v>
+        <v>1357</v>
       </c>
       <c r="G43" t="s">
-        <v>1492</v>
+        <v>1479</v>
       </c>
       <c r="H43" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6996,7 +6957,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7016,13 +6977,13 @@
         <v>1288</v>
       </c>
       <c r="F45" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="G45" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="H45" t="s">
-        <v>1803</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7042,13 +7003,13 @@
         <v>1289</v>
       </c>
       <c r="F46" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G46" t="s">
-        <v>1494</v>
+        <v>1481</v>
       </c>
       <c r="H46" t="s">
-        <v>1804</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7068,13 +7029,13 @@
         <v>1277</v>
       </c>
       <c r="F47" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G47" t="s">
-        <v>1495</v>
+        <v>1482</v>
       </c>
       <c r="H47" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7100,7 +7061,7 @@
         <v>989</v>
       </c>
       <c r="H48" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7120,13 +7081,13 @@
         <v>1282</v>
       </c>
       <c r="F49" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G49" t="s">
-        <v>1496</v>
+        <v>1483</v>
       </c>
       <c r="H49" t="s">
-        <v>1805</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7146,13 +7107,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="G50" t="s">
-        <v>1497</v>
+        <v>1484</v>
       </c>
       <c r="H50" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7172,13 +7133,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1362</v>
+        <v>1348</v>
       </c>
       <c r="G51" t="s">
-        <v>1498</v>
+        <v>1485</v>
       </c>
       <c r="H51" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7198,13 +7159,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="G52" t="s">
-        <v>1499</v>
+        <v>1486</v>
       </c>
       <c r="H52" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7224,13 +7185,13 @@
         <v>1277</v>
       </c>
       <c r="F53" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="G53" t="s">
-        <v>1500</v>
+        <v>1487</v>
       </c>
       <c r="H53" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7250,13 +7211,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1364</v>
+        <v>1337</v>
       </c>
       <c r="G54" t="s">
-        <v>1501</v>
+        <v>1488</v>
       </c>
       <c r="H54" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7276,13 +7237,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="G55" t="s">
-        <v>1502</v>
+        <v>1489</v>
       </c>
       <c r="H55" t="s">
-        <v>1806</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7302,13 +7263,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="G56" t="s">
-        <v>1503</v>
+        <v>1490</v>
       </c>
       <c r="H56" t="s">
-        <v>1807</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7328,13 +7289,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="G57" t="s">
-        <v>1504</v>
+        <v>1491</v>
       </c>
       <c r="H57" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7354,13 +7315,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="G58" t="s">
-        <v>1505</v>
+        <v>1492</v>
       </c>
       <c r="H58" t="s">
-        <v>1808</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7380,13 +7341,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="G59" t="s">
-        <v>1506</v>
+        <v>1493</v>
       </c>
       <c r="H59" t="s">
-        <v>1806</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7406,13 +7367,13 @@
         <v>1276</v>
       </c>
       <c r="F60" t="s">
-        <v>1342</v>
+        <v>1365</v>
       </c>
       <c r="G60" t="s">
-        <v>1507</v>
+        <v>1494</v>
       </c>
       <c r="H60" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7432,13 +7393,13 @@
         <v>1278</v>
       </c>
       <c r="F61" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G61" t="s">
-        <v>1508</v>
+        <v>1495</v>
       </c>
       <c r="H61" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7458,13 +7419,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="G62" t="s">
-        <v>1509</v>
+        <v>1496</v>
       </c>
       <c r="H62" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7484,13 +7445,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1342</v>
+        <v>1367</v>
       </c>
       <c r="G63" t="s">
-        <v>1510</v>
+        <v>1497</v>
       </c>
       <c r="H63" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7510,13 +7471,13 @@
         <v>1278</v>
       </c>
       <c r="F64" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G64" t="s">
-        <v>1511</v>
+        <v>1498</v>
       </c>
       <c r="H64" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7542,7 +7503,7 @@
         <v>947</v>
       </c>
       <c r="H65" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7568,7 +7529,7 @@
         <v>987</v>
       </c>
       <c r="H66" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7591,10 +7552,10 @@
         <v>1278</v>
       </c>
       <c r="G67" t="s">
-        <v>1512</v>
+        <v>1499</v>
       </c>
       <c r="H67" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7617,10 +7578,10 @@
         <v>1337</v>
       </c>
       <c r="G68" t="s">
-        <v>1513</v>
+        <v>1500</v>
       </c>
       <c r="H68" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7643,10 +7604,10 @@
         <v>1278</v>
       </c>
       <c r="G69" t="s">
-        <v>1514</v>
+        <v>1501</v>
       </c>
       <c r="H69" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7666,13 +7627,13 @@
         <v>1278</v>
       </c>
       <c r="F70" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G70" t="s">
-        <v>1515</v>
+        <v>1502</v>
       </c>
       <c r="H70" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7692,13 +7653,13 @@
         <v>1277</v>
       </c>
       <c r="F71" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G71" t="s">
-        <v>1516</v>
+        <v>1503</v>
       </c>
       <c r="H71" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7718,13 +7679,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1371</v>
+        <v>1341</v>
       </c>
       <c r="G72" t="s">
-        <v>1517</v>
+        <v>1504</v>
       </c>
       <c r="H72" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7750,7 +7711,7 @@
         <v>947</v>
       </c>
       <c r="H73" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7770,13 +7731,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G74" t="s">
-        <v>1518</v>
+        <v>1505</v>
       </c>
       <c r="H74" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7799,10 +7760,10 @@
         <v>1276</v>
       </c>
       <c r="G75" t="s">
-        <v>1519</v>
+        <v>1506</v>
       </c>
       <c r="H75" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7822,13 +7783,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="G76" t="s">
-        <v>1520</v>
+        <v>1507</v>
       </c>
       <c r="H76" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7848,13 +7809,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1373</v>
+        <v>1356</v>
       </c>
       <c r="G77" t="s">
-        <v>1521</v>
+        <v>1508</v>
       </c>
       <c r="H77" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7874,13 +7835,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G78" t="s">
-        <v>1522</v>
+        <v>1509</v>
       </c>
       <c r="H78" t="s">
-        <v>1809</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7900,13 +7861,13 @@
         <v>1278</v>
       </c>
       <c r="F79" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G79" t="s">
-        <v>1523</v>
+        <v>1510</v>
       </c>
       <c r="H79" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7932,7 +7893,7 @@
         <v>933</v>
       </c>
       <c r="H80" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7952,13 +7913,13 @@
         <v>1278</v>
       </c>
       <c r="F81" t="s">
-        <v>1374</v>
+        <v>1337</v>
       </c>
       <c r="G81" t="s">
-        <v>1524</v>
+        <v>1511</v>
       </c>
       <c r="H81" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7984,7 +7945,7 @@
         <v>1065</v>
       </c>
       <c r="H82" t="s">
-        <v>1808</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -8010,7 +7971,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8030,13 +7991,13 @@
         <v>1278</v>
       </c>
       <c r="F84" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="G84" t="s">
-        <v>1525</v>
+        <v>1512</v>
       </c>
       <c r="H84" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8056,13 +8017,13 @@
         <v>1282</v>
       </c>
       <c r="F85" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G85" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="H85" t="s">
-        <v>1810</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8085,10 +8046,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1527</v>
+        <v>1514</v>
       </c>
       <c r="H86" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8108,13 +8069,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1374</v>
+        <v>1343</v>
       </c>
       <c r="G87" t="s">
-        <v>1528</v>
+        <v>1515</v>
       </c>
       <c r="H87" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8134,13 +8095,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G88" t="s">
-        <v>1529</v>
+        <v>1516</v>
       </c>
       <c r="H88" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8160,13 +8121,13 @@
         <v>1278</v>
       </c>
       <c r="F89" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="G89" t="s">
-        <v>1530</v>
+        <v>1517</v>
       </c>
       <c r="H89" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8186,13 +8147,13 @@
         <v>1298</v>
       </c>
       <c r="F90" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="G90" t="s">
-        <v>1531</v>
+        <v>1518</v>
       </c>
       <c r="H90" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8212,13 +8173,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G91" t="s">
-        <v>1532</v>
+        <v>1519</v>
       </c>
       <c r="H91" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8238,13 +8199,13 @@
         <v>1299</v>
       </c>
       <c r="F92" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="G92" t="s">
-        <v>1533</v>
+        <v>1520</v>
       </c>
       <c r="H92" t="s">
-        <v>1811</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8264,13 +8225,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1378</v>
+        <v>1340</v>
       </c>
       <c r="G93" t="s">
-        <v>1534</v>
+        <v>1521</v>
       </c>
       <c r="H93" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8290,13 +8251,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1374</v>
+        <v>1343</v>
       </c>
       <c r="G94" t="s">
-        <v>1535</v>
+        <v>1522</v>
       </c>
       <c r="H94" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8316,13 +8277,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="G95" t="s">
-        <v>1536</v>
+        <v>1523</v>
       </c>
       <c r="H95" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8342,13 +8303,13 @@
         <v>1278</v>
       </c>
       <c r="F96" t="s">
-        <v>1338</v>
+        <v>1372</v>
       </c>
       <c r="G96" t="s">
-        <v>1537</v>
+        <v>1524</v>
       </c>
       <c r="H96" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8368,13 +8329,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G97" t="s">
-        <v>1538</v>
+        <v>1525</v>
       </c>
       <c r="H97" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8394,13 +8355,13 @@
         <v>1276</v>
       </c>
       <c r="F98" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G98" t="s">
-        <v>1539</v>
+        <v>1526</v>
       </c>
       <c r="H98" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8423,10 +8384,10 @@
         <v>1278</v>
       </c>
       <c r="G99" t="s">
-        <v>1540</v>
+        <v>1527</v>
       </c>
       <c r="H99" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8449,10 +8410,10 @@
         <v>1278</v>
       </c>
       <c r="G100" t="s">
-        <v>1541</v>
+        <v>1528</v>
       </c>
       <c r="H100" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8472,13 +8433,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G101" t="s">
-        <v>1542</v>
+        <v>1529</v>
       </c>
       <c r="H101" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8501,10 +8462,10 @@
         <v>1285</v>
       </c>
       <c r="G102" t="s">
-        <v>1543</v>
+        <v>1530</v>
       </c>
       <c r="H102" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8524,13 +8485,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1278</v>
+        <v>1285</v>
       </c>
       <c r="G103" t="s">
         <v>968</v>
       </c>
       <c r="H103" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8550,13 +8511,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="G104" t="s">
-        <v>1544</v>
+        <v>1531</v>
       </c>
       <c r="H104" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8582,7 +8543,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8602,13 +8563,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G106" t="s">
-        <v>1545</v>
+        <v>1532</v>
       </c>
       <c r="H106" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8628,13 +8589,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="G107" t="s">
-        <v>1546</v>
+        <v>1533</v>
       </c>
       <c r="H107" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8654,13 +8615,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1371</v>
+        <v>1341</v>
       </c>
       <c r="G108" t="s">
-        <v>1547</v>
+        <v>1534</v>
       </c>
       <c r="H108" t="s">
-        <v>1812</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8680,13 +8641,13 @@
         <v>1298</v>
       </c>
       <c r="F109" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G109" t="s">
-        <v>1548</v>
+        <v>1535</v>
       </c>
       <c r="H109" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8712,7 +8673,7 @@
         <v>1025</v>
       </c>
       <c r="H110" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8738,7 +8699,7 @@
         <v>933</v>
       </c>
       <c r="H111" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8758,13 +8719,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G112" t="s">
-        <v>1549</v>
+        <v>1536</v>
       </c>
       <c r="H112" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8784,13 +8745,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="G113" t="s">
-        <v>1550</v>
+        <v>1537</v>
       </c>
       <c r="H113" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8816,7 +8777,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8836,13 +8797,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1371</v>
+        <v>1341</v>
       </c>
       <c r="G115" t="s">
-        <v>1547</v>
+        <v>1534</v>
       </c>
       <c r="H115" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8862,13 +8823,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="G116" t="s">
-        <v>1551</v>
+        <v>1538</v>
       </c>
       <c r="H116" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8888,13 +8849,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1382</v>
+        <v>1346</v>
       </c>
       <c r="G117" t="s">
-        <v>1552</v>
+        <v>1539</v>
       </c>
       <c r="H117" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8914,13 +8875,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="G118" t="s">
-        <v>1553</v>
+        <v>1540</v>
       </c>
       <c r="H118" t="s">
-        <v>1809</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8940,13 +8901,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G119" t="s">
-        <v>1554</v>
+        <v>1541</v>
       </c>
       <c r="H119" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8966,13 +8927,13 @@
         <v>1278</v>
       </c>
       <c r="F120" t="s">
-        <v>1363</v>
+        <v>1376</v>
       </c>
       <c r="G120" t="s">
-        <v>1555</v>
+        <v>1542</v>
       </c>
       <c r="H120" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8992,13 +8953,13 @@
         <v>1301</v>
       </c>
       <c r="F121" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="G121" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
       <c r="H121" t="s">
-        <v>1806</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -9024,7 +8985,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9044,13 +9005,13 @@
         <v>1278</v>
       </c>
       <c r="F123" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="G123" t="s">
-        <v>1557</v>
+        <v>1544</v>
       </c>
       <c r="H123" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9076,7 +9037,7 @@
         <v>1035</v>
       </c>
       <c r="H124" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9096,13 +9057,13 @@
         <v>1278</v>
       </c>
       <c r="F125" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G125" t="s">
-        <v>1558</v>
+        <v>1545</v>
       </c>
       <c r="H125" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9122,13 +9083,13 @@
         <v>1278</v>
       </c>
       <c r="F126" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G126" t="s">
-        <v>1559</v>
+        <v>1546</v>
       </c>
       <c r="H126" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9148,13 +9109,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G127" t="s">
-        <v>1560</v>
+        <v>1547</v>
       </c>
       <c r="H127" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9180,7 +9141,7 @@
         <v>947</v>
       </c>
       <c r="H128" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9200,13 +9161,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1386</v>
+        <v>1356</v>
       </c>
       <c r="G129" t="s">
-        <v>1561</v>
+        <v>1548</v>
       </c>
       <c r="H129" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9226,13 +9187,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1387</v>
+        <v>1356</v>
       </c>
       <c r="G130" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="H130" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9252,13 +9213,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1386</v>
+        <v>1347</v>
       </c>
       <c r="G131" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
       <c r="H131" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9278,13 +9239,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="G132" t="s">
         <v>1240</v>
       </c>
       <c r="H132" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9310,7 +9271,7 @@
         <v>933</v>
       </c>
       <c r="H133" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9330,13 +9291,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="G134" t="s">
-        <v>1564</v>
+        <v>1551</v>
       </c>
       <c r="H134" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9356,13 +9317,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1389</v>
+        <v>1347</v>
       </c>
       <c r="G135" t="s">
-        <v>1565</v>
+        <v>1552</v>
       </c>
       <c r="H135" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9382,13 +9343,13 @@
         <v>1278</v>
       </c>
       <c r="F136" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G136" t="s">
-        <v>1566</v>
+        <v>1553</v>
       </c>
       <c r="H136" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9408,13 +9369,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1390</v>
+        <v>1340</v>
       </c>
       <c r="G137" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="H137" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9440,7 +9401,7 @@
         <v>1025</v>
       </c>
       <c r="H138" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9460,13 +9421,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="G139" t="s">
-        <v>1568</v>
+        <v>1555</v>
       </c>
       <c r="H139" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9486,13 +9447,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1391</v>
+        <v>1348</v>
       </c>
       <c r="G140" t="s">
-        <v>1569</v>
+        <v>1556</v>
       </c>
       <c r="H140" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9515,10 +9476,10 @@
         <v>1278</v>
       </c>
       <c r="G141" t="s">
-        <v>1570</v>
+        <v>1557</v>
       </c>
       <c r="H141" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9538,13 +9499,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1392</v>
+        <v>1364</v>
       </c>
       <c r="G142" t="s">
-        <v>1571</v>
+        <v>1558</v>
       </c>
       <c r="H142" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9564,13 +9525,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1393</v>
+        <v>1380</v>
       </c>
       <c r="G143" t="s">
-        <v>1572</v>
+        <v>1559</v>
       </c>
       <c r="H143" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9590,13 +9551,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="G144" t="s">
-        <v>1573</v>
+        <v>1560</v>
       </c>
       <c r="H144" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9616,13 +9577,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1394</v>
+        <v>1381</v>
       </c>
       <c r="G145" t="s">
-        <v>1574</v>
+        <v>1561</v>
       </c>
       <c r="H145" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9642,13 +9603,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1395</v>
+        <v>1382</v>
       </c>
       <c r="G146" t="s">
-        <v>1575</v>
+        <v>1562</v>
       </c>
       <c r="H146" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9671,10 +9632,10 @@
         <v>1276</v>
       </c>
       <c r="G147" t="s">
-        <v>1576</v>
+        <v>1563</v>
       </c>
       <c r="H147" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9694,13 +9655,13 @@
         <v>1278</v>
       </c>
       <c r="F148" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="G148" t="s">
-        <v>1577</v>
+        <v>1564</v>
       </c>
       <c r="H148" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9720,13 +9681,13 @@
         <v>1277</v>
       </c>
       <c r="F149" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G149" t="s">
-        <v>1578</v>
+        <v>1565</v>
       </c>
       <c r="H149" t="s">
-        <v>1813</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9746,13 +9707,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1371</v>
+        <v>1341</v>
       </c>
       <c r="G150" t="s">
-        <v>1579</v>
+        <v>1566</v>
       </c>
       <c r="H150" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9772,13 +9733,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1396</v>
+        <v>1383</v>
       </c>
       <c r="G151" t="s">
-        <v>1580</v>
+        <v>1567</v>
       </c>
       <c r="H151" t="s">
-        <v>1814</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9798,13 +9759,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G152" t="s">
-        <v>1581</v>
+        <v>1568</v>
       </c>
       <c r="H152" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9824,13 +9785,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
       <c r="G153" t="s">
-        <v>1582</v>
+        <v>1569</v>
       </c>
       <c r="H153" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9850,13 +9811,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1375</v>
+        <v>1356</v>
       </c>
       <c r="G154" t="s">
-        <v>1583</v>
+        <v>1570</v>
       </c>
       <c r="H154" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9876,13 +9837,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G155" t="s">
-        <v>1584</v>
+        <v>1571</v>
       </c>
       <c r="H155" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9908,7 +9869,7 @@
         <v>1062</v>
       </c>
       <c r="H156" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9928,13 +9889,13 @@
         <v>1278</v>
       </c>
       <c r="F157" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G157" t="s">
-        <v>1585</v>
+        <v>1572</v>
       </c>
       <c r="H157" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9954,13 +9915,13 @@
         <v>1285</v>
       </c>
       <c r="F158" t="s">
-        <v>1372</v>
+        <v>1337</v>
       </c>
       <c r="G158" t="s">
-        <v>1586</v>
+        <v>1573</v>
       </c>
       <c r="H158" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9986,7 +9947,7 @@
         <v>1065</v>
       </c>
       <c r="H159" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -10012,7 +9973,7 @@
         <v>1095</v>
       </c>
       <c r="H160" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -10038,7 +9999,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10064,7 +10025,7 @@
         <v>1062</v>
       </c>
       <c r="H162" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10087,10 +10048,10 @@
         <v>1278</v>
       </c>
       <c r="G163" t="s">
-        <v>1587</v>
+        <v>1574</v>
       </c>
       <c r="H163" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10116,7 +10077,7 @@
         <v>996</v>
       </c>
       <c r="H164" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10136,13 +10097,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G165" t="s">
-        <v>1588</v>
+        <v>1575</v>
       </c>
       <c r="H165" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10165,10 +10126,10 @@
         <v>1278</v>
       </c>
       <c r="G166" t="s">
-        <v>1589</v>
+        <v>1576</v>
       </c>
       <c r="H166" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10188,13 +10149,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G167" t="s">
-        <v>1590</v>
+        <v>1577</v>
       </c>
       <c r="H167" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10214,13 +10175,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1398</v>
+        <v>1385</v>
       </c>
       <c r="G168" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="H168" t="s">
-        <v>1806</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10246,7 +10207,7 @@
         <v>1065</v>
       </c>
       <c r="H169" t="s">
-        <v>1809</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10269,10 +10230,10 @@
         <v>1294</v>
       </c>
       <c r="G170" t="s">
-        <v>1592</v>
+        <v>1579</v>
       </c>
       <c r="H170" t="s">
-        <v>1806</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10292,13 +10253,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="G171" t="s">
-        <v>1593</v>
+        <v>1580</v>
       </c>
       <c r="H171" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10318,13 +10279,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G172" t="s">
-        <v>1594</v>
+        <v>1581</v>
       </c>
       <c r="H172" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10344,13 +10305,13 @@
         <v>1296</v>
       </c>
       <c r="F173" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G173" t="s">
-        <v>1595</v>
+        <v>1582</v>
       </c>
       <c r="H173" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10370,13 +10331,13 @@
         <v>1277</v>
       </c>
       <c r="F174" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G174" t="s">
-        <v>1596</v>
+        <v>1583</v>
       </c>
       <c r="H174" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10396,13 +10357,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G175" t="s">
-        <v>1522</v>
+        <v>1509</v>
       </c>
       <c r="H175" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10422,13 +10383,13 @@
         <v>1276</v>
       </c>
       <c r="F176" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="G176" t="s">
-        <v>1597</v>
+        <v>1584</v>
       </c>
       <c r="H176" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10448,13 +10409,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G177" t="s">
-        <v>1529</v>
+        <v>1516</v>
       </c>
       <c r="H177" t="s">
-        <v>1804</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10474,13 +10435,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G178" t="s">
-        <v>1529</v>
+        <v>1516</v>
       </c>
       <c r="H178" t="s">
-        <v>1815</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10500,13 +10461,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="G179" t="s">
-        <v>1598</v>
+        <v>1585</v>
       </c>
       <c r="H179" t="s">
-        <v>1806</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10526,13 +10487,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G180" t="s">
-        <v>1599</v>
+        <v>1586</v>
       </c>
       <c r="H180" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10552,13 +10513,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1399</v>
+        <v>1386</v>
       </c>
       <c r="G181" t="s">
-        <v>1600</v>
+        <v>1587</v>
       </c>
       <c r="H181" t="s">
-        <v>1809</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10578,13 +10539,13 @@
         <v>1278</v>
       </c>
       <c r="F182" t="s">
-        <v>1400</v>
+        <v>1387</v>
       </c>
       <c r="G182" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="H182" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10610,7 +10571,7 @@
         <v>1086</v>
       </c>
       <c r="H183" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10633,10 +10594,10 @@
         <v>1278</v>
       </c>
       <c r="G184" t="s">
-        <v>1602</v>
+        <v>1589</v>
       </c>
       <c r="H184" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10659,10 +10620,10 @@
         <v>1367</v>
       </c>
       <c r="G185" t="s">
-        <v>1603</v>
+        <v>1590</v>
       </c>
       <c r="H185" t="s">
-        <v>1809</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10688,7 +10649,7 @@
         <v>1089</v>
       </c>
       <c r="H186" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10714,7 +10675,7 @@
         <v>933</v>
       </c>
       <c r="H187" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10740,7 +10701,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10766,7 +10727,7 @@
         <v>1095</v>
       </c>
       <c r="H189" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10792,7 +10753,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10812,13 +10773,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1348</v>
+        <v>1356</v>
       </c>
       <c r="G191" t="s">
-        <v>1604</v>
+        <v>1591</v>
       </c>
       <c r="H191" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10838,13 +10799,13 @@
         <v>1311</v>
       </c>
       <c r="F192" t="s">
-        <v>1342</v>
+        <v>1365</v>
       </c>
       <c r="G192" t="s">
-        <v>1605</v>
+        <v>1592</v>
       </c>
       <c r="H192" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10864,13 +10825,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G193" t="s">
-        <v>1529</v>
+        <v>1516</v>
       </c>
       <c r="H193" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10890,13 +10851,13 @@
         <v>1278</v>
       </c>
       <c r="F194" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G194" t="s">
-        <v>1606</v>
+        <v>1593</v>
       </c>
       <c r="H194" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10922,7 +10883,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10942,13 +10903,13 @@
         <v>1285</v>
       </c>
       <c r="F196" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G196" t="s">
         <v>1095</v>
       </c>
       <c r="H196" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10974,7 +10935,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10994,7 +10955,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -11014,13 +10975,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1374</v>
+        <v>1343</v>
       </c>
       <c r="G199" t="s">
-        <v>1607</v>
+        <v>1594</v>
       </c>
       <c r="H199" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -11046,7 +11007,7 @@
         <v>1046</v>
       </c>
       <c r="H200" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11066,13 +11027,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="G201" t="s">
-        <v>1608</v>
+        <v>1595</v>
       </c>
       <c r="H201" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11092,13 +11053,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1401</v>
+        <v>1388</v>
       </c>
       <c r="G202" t="s">
-        <v>1609</v>
+        <v>1596</v>
       </c>
       <c r="H202" t="s">
-        <v>1806</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11124,7 +11085,7 @@
         <v>1089</v>
       </c>
       <c r="H203" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11144,13 +11105,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G204" t="s">
-        <v>1610</v>
+        <v>1597</v>
       </c>
       <c r="H204" t="s">
-        <v>1812</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11173,10 +11134,10 @@
         <v>1278</v>
       </c>
       <c r="G205" t="s">
-        <v>1611</v>
+        <v>1598</v>
       </c>
       <c r="H205" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11196,13 +11157,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1402</v>
+        <v>1389</v>
       </c>
       <c r="G206" t="s">
-        <v>1612</v>
+        <v>1599</v>
       </c>
       <c r="H206" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11222,13 +11183,13 @@
         <v>1276</v>
       </c>
       <c r="F207" t="s">
-        <v>1371</v>
+        <v>1341</v>
       </c>
       <c r="G207" t="s">
-        <v>1613</v>
+        <v>1600</v>
       </c>
       <c r="H207" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11248,13 +11209,13 @@
         <v>1278</v>
       </c>
       <c r="F208" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="G208" t="s">
-        <v>1614</v>
+        <v>1601</v>
       </c>
       <c r="H208" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11274,13 +11235,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G209" t="s">
-        <v>1615</v>
+        <v>1602</v>
       </c>
       <c r="H209" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11303,10 +11264,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1616</v>
+        <v>1603</v>
       </c>
       <c r="H210" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11326,13 +11287,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1403</v>
+        <v>1390</v>
       </c>
       <c r="G211" t="s">
-        <v>1617</v>
+        <v>1604</v>
       </c>
       <c r="H211" t="s">
-        <v>1816</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11352,13 +11313,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1371</v>
+        <v>1341</v>
       </c>
       <c r="G212" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="H212" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11384,7 +11345,7 @@
         <v>1106</v>
       </c>
       <c r="H213" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11404,13 +11365,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1404</v>
+        <v>1391</v>
       </c>
       <c r="G214" t="s">
-        <v>1619</v>
+        <v>1606</v>
       </c>
       <c r="H214" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11430,13 +11391,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G215" t="s">
-        <v>1620</v>
+        <v>1607</v>
       </c>
       <c r="H215" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11456,13 +11417,13 @@
         <v>1278</v>
       </c>
       <c r="F216" t="s">
-        <v>1405</v>
+        <v>1392</v>
       </c>
       <c r="G216" t="s">
-        <v>1621</v>
+        <v>1608</v>
       </c>
       <c r="H216" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11482,13 +11443,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G217" t="s">
-        <v>1622</v>
+        <v>1609</v>
       </c>
       <c r="H217" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11508,13 +11469,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1406</v>
+        <v>1393</v>
       </c>
       <c r="G218" t="s">
-        <v>1623</v>
+        <v>1610</v>
       </c>
       <c r="H218" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11534,13 +11495,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G219" t="s">
-        <v>1624</v>
+        <v>1611</v>
       </c>
       <c r="H219" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11560,13 +11521,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1400</v>
+        <v>1387</v>
       </c>
       <c r="G220" t="s">
-        <v>1625</v>
+        <v>1612</v>
       </c>
       <c r="H220" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11586,13 +11547,13 @@
         <v>1313</v>
       </c>
       <c r="F221" t="s">
-        <v>1407</v>
+        <v>1394</v>
       </c>
       <c r="G221" t="s">
-        <v>1626</v>
+        <v>1613</v>
       </c>
       <c r="H221" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11615,10 +11576,10 @@
         <v>1367</v>
       </c>
       <c r="G222" t="s">
-        <v>1627</v>
+        <v>1614</v>
       </c>
       <c r="H222" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11638,13 +11599,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1408</v>
+        <v>1395</v>
       </c>
       <c r="G223" t="s">
-        <v>1628</v>
+        <v>1615</v>
       </c>
       <c r="H223" t="s">
-        <v>1817</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11664,13 +11625,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1409</v>
+        <v>1396</v>
       </c>
       <c r="G224" t="s">
-        <v>1629</v>
+        <v>1616</v>
       </c>
       <c r="H224" t="s">
-        <v>1818</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11696,7 +11657,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11719,10 +11680,10 @@
         <v>1276</v>
       </c>
       <c r="G226" t="s">
-        <v>1576</v>
+        <v>1563</v>
       </c>
       <c r="H226" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11742,13 +11703,13 @@
         <v>1285</v>
       </c>
       <c r="F227" t="s">
-        <v>1389</v>
+        <v>1397</v>
       </c>
       <c r="G227" t="s">
-        <v>1630</v>
+        <v>1617</v>
       </c>
       <c r="H227" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11771,10 +11732,10 @@
         <v>1285</v>
       </c>
       <c r="G228" t="s">
-        <v>1631</v>
+        <v>1618</v>
       </c>
       <c r="H228" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11800,7 +11761,7 @@
         <v>947</v>
       </c>
       <c r="H229" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11823,10 +11784,10 @@
         <v>1337</v>
       </c>
       <c r="G230" t="s">
-        <v>1632</v>
+        <v>1619</v>
       </c>
       <c r="H230" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11849,10 +11810,10 @@
         <v>1276</v>
       </c>
       <c r="G231" t="s">
-        <v>1633</v>
+        <v>1620</v>
       </c>
       <c r="H231" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11875,10 +11836,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1634</v>
+        <v>1621</v>
       </c>
       <c r="H232" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11898,13 +11859,13 @@
         <v>1315</v>
       </c>
       <c r="F233" t="s">
-        <v>1368</v>
+        <v>1398</v>
       </c>
       <c r="G233" t="s">
-        <v>1635</v>
+        <v>1622</v>
       </c>
       <c r="H233" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11924,13 +11885,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1374</v>
+        <v>1357</v>
       </c>
       <c r="G234" t="s">
-        <v>1636</v>
+        <v>1623</v>
       </c>
       <c r="H234" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11950,13 +11911,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G235" t="s">
-        <v>1637</v>
+        <v>1624</v>
       </c>
       <c r="H235" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11976,13 +11937,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="G236" t="s">
-        <v>1638</v>
+        <v>1625</v>
       </c>
       <c r="H236" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -12002,13 +11963,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
       <c r="G237" t="s">
-        <v>1639</v>
+        <v>1626</v>
       </c>
       <c r="H237" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -12028,13 +11989,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
       <c r="G238" t="s">
-        <v>1640</v>
+        <v>1627</v>
       </c>
       <c r="H238" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12054,13 +12015,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G239" t="s">
-        <v>1641</v>
+        <v>1628</v>
       </c>
       <c r="H239" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12080,13 +12041,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1411</v>
+        <v>1400</v>
       </c>
       <c r="G240" t="s">
-        <v>1642</v>
+        <v>1629</v>
       </c>
       <c r="H240" t="s">
-        <v>1806</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12106,13 +12067,13 @@
         <v>1285</v>
       </c>
       <c r="F241" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="G241" t="s">
-        <v>1643</v>
+        <v>1630</v>
       </c>
       <c r="H241" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12132,13 +12093,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="G242" t="s">
-        <v>1644</v>
+        <v>1631</v>
       </c>
       <c r="H242" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12164,7 +12125,7 @@
         <v>947</v>
       </c>
       <c r="H243" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12190,7 +12151,7 @@
         <v>931</v>
       </c>
       <c r="H244" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12216,7 +12177,7 @@
         <v>947</v>
       </c>
       <c r="H245" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12242,7 +12203,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12262,13 +12223,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1367</v>
+        <v>1341</v>
       </c>
       <c r="G247" t="s">
-        <v>1645</v>
+        <v>1632</v>
       </c>
       <c r="H247" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12288,13 +12249,13 @@
         <v>1276</v>
       </c>
       <c r="F248" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
       <c r="G248" t="s">
-        <v>1646</v>
+        <v>1633</v>
       </c>
       <c r="H248" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12314,13 +12275,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1374</v>
+        <v>1343</v>
       </c>
       <c r="G249" t="s">
-        <v>1647</v>
+        <v>1634</v>
       </c>
       <c r="H249" t="s">
-        <v>1800</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12343,10 +12304,10 @@
         <v>1278</v>
       </c>
       <c r="G250" t="s">
-        <v>1648</v>
+        <v>1635</v>
       </c>
       <c r="H250" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12366,13 +12327,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1347</v>
+        <v>1362</v>
       </c>
       <c r="G251" t="s">
-        <v>1649</v>
+        <v>1636</v>
       </c>
       <c r="H251" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12398,7 +12359,7 @@
         <v>1132</v>
       </c>
       <c r="H252" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12424,7 +12385,7 @@
         <v>947</v>
       </c>
       <c r="H253" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12450,7 +12411,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12470,13 +12431,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
       <c r="G255" t="s">
-        <v>1650</v>
+        <v>1637</v>
       </c>
       <c r="H255" t="s">
-        <v>1809</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12499,10 +12460,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1651</v>
+        <v>1638</v>
       </c>
       <c r="H256" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12525,10 +12486,10 @@
         <v>1337</v>
       </c>
       <c r="G257" t="s">
-        <v>1462</v>
+        <v>1449</v>
       </c>
       <c r="H257" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12548,13 +12509,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1375</v>
+        <v>1356</v>
       </c>
       <c r="G258" t="s">
-        <v>1652</v>
+        <v>1639</v>
       </c>
       <c r="H258" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12574,13 +12535,13 @@
         <v>1285</v>
       </c>
       <c r="F259" t="s">
-        <v>1379</v>
+        <v>1404</v>
       </c>
       <c r="G259" t="s">
-        <v>1653</v>
+        <v>1640</v>
       </c>
       <c r="H259" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12603,10 +12564,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1651</v>
+        <v>1638</v>
       </c>
       <c r="H260" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12632,7 +12593,7 @@
         <v>1138</v>
       </c>
       <c r="H261" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12658,7 +12619,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12678,13 +12639,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1415</v>
+        <v>1405</v>
       </c>
       <c r="G263" t="s">
-        <v>1654</v>
+        <v>1641</v>
       </c>
       <c r="H263" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12710,7 +12671,7 @@
         <v>1160</v>
       </c>
       <c r="H264" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12730,13 +12691,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1416</v>
+        <v>1406</v>
       </c>
       <c r="G265" t="s">
-        <v>1655</v>
+        <v>1642</v>
       </c>
       <c r="H265" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12756,13 +12717,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
       <c r="G266" t="s">
-        <v>1656</v>
+        <v>1643</v>
       </c>
       <c r="H266" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12782,13 +12743,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="G267" t="s">
-        <v>1657</v>
+        <v>1644</v>
       </c>
       <c r="H267" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12808,13 +12769,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1361</v>
+        <v>1338</v>
       </c>
       <c r="G268" t="s">
-        <v>1658</v>
+        <v>1645</v>
       </c>
       <c r="H268" t="s">
-        <v>1805</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12834,13 +12795,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1389</v>
+        <v>1347</v>
       </c>
       <c r="G269" t="s">
-        <v>1659</v>
+        <v>1646</v>
       </c>
       <c r="H269" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12860,13 +12821,13 @@
         <v>1276</v>
       </c>
       <c r="F270" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G270" t="s">
-        <v>1660</v>
+        <v>1647</v>
       </c>
       <c r="H270" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12886,13 +12847,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G271" t="s">
-        <v>1661</v>
+        <v>1648</v>
       </c>
       <c r="H271" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12912,13 +12873,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
       <c r="G272" t="s">
-        <v>1662</v>
+        <v>1649</v>
       </c>
       <c r="H272" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12938,13 +12899,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="G273" t="s">
-        <v>1663</v>
+        <v>1650</v>
       </c>
       <c r="H273" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12964,13 +12925,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1374</v>
+        <v>1343</v>
       </c>
       <c r="G274" t="s">
-        <v>1664</v>
+        <v>1651</v>
       </c>
       <c r="H274" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12990,13 +12951,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1419</v>
+        <v>1403</v>
       </c>
       <c r="G275" t="s">
-        <v>1665</v>
+        <v>1652</v>
       </c>
       <c r="H275" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -13019,10 +12980,10 @@
         <v>1285</v>
       </c>
       <c r="G276" t="s">
-        <v>1666</v>
+        <v>1653</v>
       </c>
       <c r="H276" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13042,13 +13003,13 @@
         <v>1276</v>
       </c>
       <c r="F277" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G277" t="s">
-        <v>1667</v>
+        <v>1654</v>
       </c>
       <c r="H277" t="s">
-        <v>1809</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13071,10 +13032,10 @@
         <v>1367</v>
       </c>
       <c r="G278" t="s">
-        <v>1603</v>
+        <v>1590</v>
       </c>
       <c r="H278" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13100,7 +13061,7 @@
         <v>1022</v>
       </c>
       <c r="H279" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13123,10 +13084,10 @@
         <v>1278</v>
       </c>
       <c r="G280" t="s">
-        <v>1668</v>
+        <v>1655</v>
       </c>
       <c r="H280" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13146,13 +13107,13 @@
         <v>1276</v>
       </c>
       <c r="F281" t="s">
-        <v>1382</v>
+        <v>1346</v>
       </c>
       <c r="G281" t="s">
-        <v>1669</v>
+        <v>1656</v>
       </c>
       <c r="H281" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13172,13 +13133,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1357</v>
+        <v>1409</v>
       </c>
       <c r="G282" t="s">
-        <v>1670</v>
+        <v>1657</v>
       </c>
       <c r="H282" t="s">
-        <v>1809</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13198,13 +13159,13 @@
         <v>1285</v>
       </c>
       <c r="F283" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G283" t="s">
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13224,13 +13185,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="G284" t="s">
-        <v>1671</v>
+        <v>1658</v>
       </c>
       <c r="H284" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13250,13 +13211,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
       <c r="G285" t="s">
-        <v>1672</v>
+        <v>1659</v>
       </c>
       <c r="H285" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13276,13 +13237,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1422</v>
+        <v>1412</v>
       </c>
       <c r="G286" t="s">
-        <v>1673</v>
+        <v>1660</v>
       </c>
       <c r="H286" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13308,7 +13269,7 @@
         <v>933</v>
       </c>
       <c r="H287" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13328,13 +13289,13 @@
         <v>1276</v>
       </c>
       <c r="F288" t="s">
-        <v>1423</v>
+        <v>1413</v>
       </c>
       <c r="G288" t="s">
-        <v>1674</v>
+        <v>1661</v>
       </c>
       <c r="H288" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13354,13 +13315,13 @@
         <v>1285</v>
       </c>
       <c r="F289" t="s">
-        <v>1424</v>
+        <v>1413</v>
       </c>
       <c r="G289" t="s">
-        <v>1675</v>
+        <v>1662</v>
       </c>
       <c r="H289" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13380,13 +13341,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="G290" t="s">
-        <v>1676</v>
+        <v>1663</v>
       </c>
       <c r="H290" t="s">
-        <v>1805</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13406,13 +13367,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1342</v>
+        <v>1365</v>
       </c>
       <c r="G291" t="s">
-        <v>1677</v>
+        <v>1664</v>
       </c>
       <c r="H291" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13432,13 +13393,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1425</v>
+        <v>1391</v>
       </c>
       <c r="G292" t="s">
-        <v>1678</v>
+        <v>1665</v>
       </c>
       <c r="H292" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13461,10 +13422,10 @@
         <v>1278</v>
       </c>
       <c r="G293" t="s">
-        <v>1679</v>
+        <v>1666</v>
       </c>
       <c r="H293" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13490,7 +13451,7 @@
         <v>1089</v>
       </c>
       <c r="H294" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13510,13 +13471,13 @@
         <v>1276</v>
       </c>
       <c r="F295" t="s">
-        <v>1342</v>
+        <v>1365</v>
       </c>
       <c r="G295" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="H295" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13542,7 +13503,7 @@
         <v>947</v>
       </c>
       <c r="H296" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13562,13 +13523,13 @@
         <v>1285</v>
       </c>
       <c r="F297" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G297" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
       <c r="H297" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13588,13 +13549,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="G298" t="s">
-        <v>1682</v>
+        <v>1669</v>
       </c>
       <c r="H298" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13620,7 +13581,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13646,7 +13607,7 @@
         <v>951</v>
       </c>
       <c r="H300" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13666,13 +13627,13 @@
         <v>1285</v>
       </c>
       <c r="F301" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G301" t="s">
-        <v>1683</v>
+        <v>1670</v>
       </c>
       <c r="H301" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13692,13 +13653,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1345</v>
+        <v>1372</v>
       </c>
       <c r="G302" t="s">
-        <v>1684</v>
+        <v>1671</v>
       </c>
       <c r="H302" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13718,13 +13679,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="G303" t="s">
-        <v>1685</v>
+        <v>1672</v>
       </c>
       <c r="H303" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13750,7 +13711,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13776,7 +13737,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13799,10 +13760,10 @@
         <v>1367</v>
       </c>
       <c r="G306" t="s">
-        <v>1686</v>
+        <v>1673</v>
       </c>
       <c r="H306" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13828,7 +13789,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13851,10 +13812,10 @@
         <v>1278</v>
       </c>
       <c r="G308" t="s">
-        <v>1687</v>
+        <v>1674</v>
       </c>
       <c r="H308" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13874,13 +13835,13 @@
         <v>1300</v>
       </c>
       <c r="F309" t="s">
-        <v>1427</v>
+        <v>1415</v>
       </c>
       <c r="G309" t="s">
-        <v>1688</v>
+        <v>1675</v>
       </c>
       <c r="H309" t="s">
-        <v>1798</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13906,7 +13867,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13926,13 +13887,13 @@
         <v>1285</v>
       </c>
       <c r="F311" t="s">
-        <v>1278</v>
+        <v>1285</v>
       </c>
       <c r="G311" t="s">
-        <v>1689</v>
+        <v>1676</v>
       </c>
       <c r="H311" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13958,7 +13919,7 @@
         <v>1089</v>
       </c>
       <c r="H312" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13984,7 +13945,7 @@
         <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -14010,7 +13971,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -14030,13 +13991,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1428</v>
+        <v>1398</v>
       </c>
       <c r="G315" t="s">
-        <v>1690</v>
+        <v>1677</v>
       </c>
       <c r="H315" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -14056,13 +14017,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G316" t="s">
-        <v>1691</v>
+        <v>1678</v>
       </c>
       <c r="H316" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14088,7 +14049,7 @@
         <v>947</v>
       </c>
       <c r="H317" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14114,7 +14075,7 @@
         <v>933</v>
       </c>
       <c r="H318" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14140,7 +14101,7 @@
         <v>1171</v>
       </c>
       <c r="H319" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14166,7 +14127,7 @@
         <v>1089</v>
       </c>
       <c r="H320" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14186,13 +14147,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G321" t="s">
-        <v>1692</v>
+        <v>1679</v>
       </c>
       <c r="H321" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14212,13 +14173,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G322" t="s">
-        <v>1693</v>
+        <v>1680</v>
       </c>
       <c r="H322" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14238,13 +14199,13 @@
         <v>1310</v>
       </c>
       <c r="F323" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="G323" t="s">
-        <v>1694</v>
+        <v>1681</v>
       </c>
       <c r="H323" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14264,13 +14225,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="G324" t="s">
-        <v>1695</v>
+        <v>1682</v>
       </c>
       <c r="H324" t="s">
-        <v>1804</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14296,7 +14257,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14322,7 +14283,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14342,13 +14303,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1430</v>
+        <v>1417</v>
       </c>
       <c r="G327" t="s">
-        <v>1696</v>
+        <v>1683</v>
       </c>
       <c r="H327" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14368,13 +14329,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1431</v>
+        <v>1418</v>
       </c>
       <c r="G328" t="s">
-        <v>1697</v>
+        <v>1684</v>
       </c>
       <c r="H328" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14394,13 +14355,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1350</v>
+        <v>1419</v>
       </c>
       <c r="G329" t="s">
-        <v>1698</v>
+        <v>1685</v>
       </c>
       <c r="H329" t="s">
-        <v>1819</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14420,13 +14381,13 @@
         <v>1285</v>
       </c>
       <c r="F330" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="G330" t="s">
-        <v>1699</v>
+        <v>1686</v>
       </c>
       <c r="H330" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14446,13 +14407,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
       <c r="G331" t="s">
-        <v>1700</v>
+        <v>1687</v>
       </c>
       <c r="H331" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14472,13 +14433,13 @@
         <v>1285</v>
       </c>
       <c r="F332" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="G332" t="s">
-        <v>1701</v>
+        <v>1688</v>
       </c>
       <c r="H332" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14501,10 +14462,10 @@
         <v>1276</v>
       </c>
       <c r="G333" t="s">
-        <v>1576</v>
+        <v>1563</v>
       </c>
       <c r="H333" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14527,10 +14488,10 @@
         <v>1285</v>
       </c>
       <c r="G334" t="s">
-        <v>1702</v>
+        <v>1689</v>
       </c>
       <c r="H334" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14550,13 +14511,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1368</v>
+        <v>1337</v>
       </c>
       <c r="G335" t="s">
-        <v>1703</v>
+        <v>1690</v>
       </c>
       <c r="H335" t="s">
-        <v>1809</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14576,13 +14537,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
       <c r="G336" t="s">
-        <v>1704</v>
+        <v>1691</v>
       </c>
       <c r="H336" t="s">
-        <v>1798</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14602,13 +14563,13 @@
         <v>1311</v>
       </c>
       <c r="F337" t="s">
-        <v>1342</v>
+        <v>1365</v>
       </c>
       <c r="G337" t="s">
-        <v>1705</v>
+        <v>1692</v>
       </c>
       <c r="H337" t="s">
-        <v>1804</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14628,13 +14589,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1434</v>
+        <v>1422</v>
       </c>
       <c r="G338" t="s">
-        <v>1706</v>
+        <v>1693</v>
       </c>
       <c r="H338" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14660,7 +14621,7 @@
         <v>1089</v>
       </c>
       <c r="H339" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14680,13 +14641,13 @@
         <v>1276</v>
       </c>
       <c r="F340" t="s">
-        <v>1294</v>
+        <v>1276</v>
       </c>
       <c r="G340" t="s">
-        <v>1707</v>
+        <v>1694</v>
       </c>
       <c r="H340" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14706,13 +14667,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1345</v>
+        <v>1372</v>
       </c>
       <c r="G341" t="s">
-        <v>1708</v>
+        <v>1695</v>
       </c>
       <c r="H341" t="s">
-        <v>1820</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14738,7 +14699,7 @@
         <v>947</v>
       </c>
       <c r="H342" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14758,13 +14719,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1379</v>
+        <v>1423</v>
       </c>
       <c r="G343" t="s">
-        <v>1709</v>
+        <v>1696</v>
       </c>
       <c r="H343" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14784,13 +14745,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1435</v>
+        <v>1424</v>
       </c>
       <c r="G344" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
       <c r="H344" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14810,13 +14771,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1344</v>
+        <v>1425</v>
       </c>
       <c r="G345" t="s">
-        <v>1711</v>
+        <v>1698</v>
       </c>
       <c r="H345" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14842,7 +14803,7 @@
         <v>1089</v>
       </c>
       <c r="H346" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14862,13 +14823,13 @@
         <v>1276</v>
       </c>
       <c r="F347" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="G347" t="s">
-        <v>1712</v>
+        <v>1699</v>
       </c>
       <c r="H347" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14894,7 +14855,7 @@
         <v>951</v>
       </c>
       <c r="H348" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14920,7 +14881,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14940,13 +14901,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="G350" t="s">
-        <v>1713</v>
+        <v>1700</v>
       </c>
       <c r="H350" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14966,13 +14927,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="G351" t="s">
-        <v>1663</v>
+        <v>1650</v>
       </c>
       <c r="H351" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14992,13 +14953,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1437</v>
+        <v>1351</v>
       </c>
       <c r="G352" t="s">
-        <v>1714</v>
+        <v>1701</v>
       </c>
       <c r="H352" t="s">
-        <v>1808</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -15018,13 +14979,13 @@
         <v>1285</v>
       </c>
       <c r="F353" t="s">
-        <v>1438</v>
+        <v>1358</v>
       </c>
       <c r="G353" t="s">
-        <v>1715</v>
+        <v>1702</v>
       </c>
       <c r="H353" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -15044,7 +15005,7 @@
         <v>1276</v>
       </c>
       <c r="H354" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15064,13 +15025,13 @@
         <v>1285</v>
       </c>
       <c r="F355" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G355" t="s">
-        <v>1716</v>
+        <v>1703</v>
       </c>
       <c r="H355" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15096,7 +15057,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15116,13 +15077,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1439</v>
+        <v>1428</v>
       </c>
       <c r="G357" t="s">
-        <v>1717</v>
+        <v>1704</v>
       </c>
       <c r="H357" t="s">
-        <v>1821</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15145,10 +15106,10 @@
         <v>1276</v>
       </c>
       <c r="G358" t="s">
-        <v>1633</v>
+        <v>1620</v>
       </c>
       <c r="H358" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15168,13 +15129,13 @@
         <v>1298</v>
       </c>
       <c r="F359" t="s">
-        <v>1389</v>
+        <v>1397</v>
       </c>
       <c r="G359" t="s">
-        <v>1718</v>
+        <v>1705</v>
       </c>
       <c r="H359" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15194,13 +15155,13 @@
         <v>1285</v>
       </c>
       <c r="F360" t="s">
-        <v>1278</v>
+        <v>1285</v>
       </c>
       <c r="G360" t="s">
-        <v>1679</v>
+        <v>1666</v>
       </c>
       <c r="H360" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15220,13 +15181,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1428</v>
+        <v>1398</v>
       </c>
       <c r="G361" t="s">
-        <v>1719</v>
+        <v>1706</v>
       </c>
       <c r="H361" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15246,13 +15207,13 @@
         <v>1298</v>
       </c>
       <c r="F362" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G362" t="s">
         <v>1240</v>
       </c>
       <c r="H362" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15272,13 +15233,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1440</v>
+        <v>1351</v>
       </c>
       <c r="G363" t="s">
-        <v>1720</v>
+        <v>1707</v>
       </c>
       <c r="H363" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15298,13 +15259,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G364" t="s">
-        <v>1721</v>
+        <v>1708</v>
       </c>
       <c r="H364" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15327,10 +15288,10 @@
         <v>1337</v>
       </c>
       <c r="G365" t="s">
-        <v>1722</v>
+        <v>1709</v>
       </c>
       <c r="H365" t="s">
-        <v>1822</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15356,7 +15317,7 @@
         <v>1089</v>
       </c>
       <c r="H366" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15382,7 +15343,7 @@
         <v>933</v>
       </c>
       <c r="H367" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15402,13 +15363,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="G368" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="H368" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15428,13 +15389,13 @@
         <v>1322</v>
       </c>
       <c r="F369" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G369" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="H369" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15454,13 +15415,13 @@
         <v>1285</v>
       </c>
       <c r="F370" t="s">
-        <v>1375</v>
+        <v>1353</v>
       </c>
       <c r="G370" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
       <c r="H370" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15480,13 +15441,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1368</v>
+        <v>1337</v>
       </c>
       <c r="G371" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="H371" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15506,13 +15467,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="G372" t="s">
-        <v>1727</v>
+        <v>1714</v>
       </c>
       <c r="H372" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15532,13 +15493,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1374</v>
+        <v>1337</v>
       </c>
       <c r="G373" t="s">
-        <v>1728</v>
+        <v>1715</v>
       </c>
       <c r="H373" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15561,10 +15522,10 @@
         <v>1285</v>
       </c>
       <c r="G374" t="s">
-        <v>1729</v>
+        <v>1716</v>
       </c>
       <c r="H374" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15587,10 +15548,10 @@
         <v>1285</v>
       </c>
       <c r="G375" t="s">
-        <v>1730</v>
+        <v>1717</v>
       </c>
       <c r="H375" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15610,13 +15571,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="G376" t="s">
-        <v>1731</v>
+        <v>1718</v>
       </c>
       <c r="H376" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15636,13 +15597,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1441</v>
+        <v>1429</v>
       </c>
       <c r="G377" t="s">
-        <v>1732</v>
+        <v>1719</v>
       </c>
       <c r="H377" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15662,13 +15623,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1424</v>
+        <v>1430</v>
       </c>
       <c r="G378" t="s">
-        <v>1733</v>
+        <v>1720</v>
       </c>
       <c r="H378" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15688,13 +15649,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1442</v>
+        <v>1431</v>
       </c>
       <c r="G379" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="H379" t="s">
-        <v>1806</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15720,7 +15681,7 @@
         <v>1065</v>
       </c>
       <c r="H380" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15740,13 +15701,13 @@
         <v>1322</v>
       </c>
       <c r="F381" t="s">
-        <v>1443</v>
+        <v>1432</v>
       </c>
       <c r="G381" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="H381" t="s">
-        <v>1798</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15766,13 +15727,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1444</v>
+        <v>1433</v>
       </c>
       <c r="G382" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="H382" t="s">
-        <v>1823</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15792,13 +15753,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1445</v>
+        <v>1434</v>
       </c>
       <c r="G383" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="H383" t="s">
-        <v>1814</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15818,13 +15779,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1446</v>
+        <v>1435</v>
       </c>
       <c r="G384" t="s">
-        <v>1738</v>
+        <v>1725</v>
       </c>
       <c r="H384" t="s">
-        <v>1798</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15844,13 +15805,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1345</v>
+        <v>1372</v>
       </c>
       <c r="G385" t="s">
-        <v>1739</v>
+        <v>1726</v>
       </c>
       <c r="H385" t="s">
-        <v>1813</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15870,13 +15831,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1447</v>
+        <v>1436</v>
       </c>
       <c r="G386" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
       <c r="H386" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15902,7 +15863,7 @@
         <v>996</v>
       </c>
       <c r="H387" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15922,13 +15883,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1448</v>
+        <v>1418</v>
       </c>
       <c r="G388" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
       <c r="H388" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15954,7 +15915,7 @@
         <v>1065</v>
       </c>
       <c r="H389" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15974,13 +15935,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G390" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
       <c r="H390" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -16000,13 +15961,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G391" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
       <c r="H391" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -16026,13 +15987,13 @@
         <v>1285</v>
       </c>
       <c r="F392" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
       <c r="G392" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
       <c r="H392" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -16058,7 +16019,7 @@
         <v>1046</v>
       </c>
       <c r="H393" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16078,13 +16039,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="G394" t="s">
-        <v>1745</v>
+        <v>1732</v>
       </c>
       <c r="H394" t="s">
-        <v>1808</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16110,7 +16071,7 @@
         <v>1089</v>
       </c>
       <c r="H395" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16136,7 +16097,7 @@
         <v>1065</v>
       </c>
       <c r="H396" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16156,13 +16117,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="G397" t="s">
-        <v>1731</v>
+        <v>1718</v>
       </c>
       <c r="H397" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16182,13 +16143,13 @@
         <v>1294</v>
       </c>
       <c r="F398" t="s">
-        <v>1343</v>
+        <v>1438</v>
       </c>
       <c r="G398" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
       <c r="H398" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16214,7 +16175,7 @@
         <v>968</v>
       </c>
       <c r="H399" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16234,13 +16195,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G400" t="s">
-        <v>1529</v>
+        <v>1516</v>
       </c>
       <c r="H400" t="s">
-        <v>1824</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16263,10 +16224,10 @@
         <v>1278</v>
       </c>
       <c r="G401" t="s">
-        <v>1747</v>
+        <v>1734</v>
       </c>
       <c r="H401" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16286,13 +16247,13 @@
         <v>1294</v>
       </c>
       <c r="F402" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G402" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
       <c r="H402" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16312,13 +16273,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1374</v>
+        <v>1343</v>
       </c>
       <c r="G403" t="s">
-        <v>1749</v>
+        <v>1736</v>
       </c>
       <c r="H403" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16338,13 +16299,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G404" t="s">
-        <v>1750</v>
+        <v>1737</v>
       </c>
       <c r="H404" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16364,13 +16325,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G405" t="s">
-        <v>1522</v>
+        <v>1509</v>
       </c>
       <c r="H405" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16396,7 +16357,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16416,13 +16377,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1450</v>
+        <v>1439</v>
       </c>
       <c r="G407" t="s">
-        <v>1751</v>
+        <v>1738</v>
       </c>
       <c r="H407" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16442,13 +16403,13 @@
         <v>1285</v>
       </c>
       <c r="F408" t="s">
-        <v>1451</v>
+        <v>1404</v>
       </c>
       <c r="G408" t="s">
-        <v>1752</v>
+        <v>1739</v>
       </c>
       <c r="H408" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16471,10 +16432,10 @@
         <v>1278</v>
       </c>
       <c r="G409" t="s">
-        <v>1753</v>
+        <v>1740</v>
       </c>
       <c r="H409" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16500,7 +16461,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16520,13 +16481,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1435</v>
+        <v>1440</v>
       </c>
       <c r="G411" t="s">
-        <v>1754</v>
+        <v>1741</v>
       </c>
       <c r="H411" t="s">
-        <v>1811</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16546,13 +16507,13 @@
         <v>1285</v>
       </c>
       <c r="F412" t="s">
-        <v>1432</v>
+        <v>1441</v>
       </c>
       <c r="G412" t="s">
-        <v>1755</v>
+        <v>1742</v>
       </c>
       <c r="H412" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16572,13 +16533,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1344</v>
+        <v>1425</v>
       </c>
       <c r="G413" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
       <c r="H413" t="s">
-        <v>1810</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16598,13 +16559,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G414" t="s">
-        <v>1757</v>
+        <v>1744</v>
       </c>
       <c r="H414" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16624,13 +16585,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1452</v>
+        <v>1442</v>
       </c>
       <c r="G415" t="s">
-        <v>1758</v>
+        <v>1745</v>
       </c>
       <c r="H415" t="s">
-        <v>1825</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16656,7 +16617,7 @@
         <v>1240</v>
       </c>
       <c r="H416" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16676,13 +16637,13 @@
         <v>1285</v>
       </c>
       <c r="F417" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G417" t="s">
-        <v>1759</v>
+        <v>1746</v>
       </c>
       <c r="H417" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16702,13 +16663,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G418" t="s">
-        <v>1760</v>
+        <v>1747</v>
       </c>
       <c r="H418" t="s">
-        <v>1812</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16728,13 +16689,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
       <c r="G419" t="s">
-        <v>1761</v>
+        <v>1748</v>
       </c>
       <c r="H419" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16754,13 +16715,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1348</v>
+        <v>1369</v>
       </c>
       <c r="G420" t="s">
-        <v>1762</v>
+        <v>1749</v>
       </c>
       <c r="H420" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16780,13 +16741,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1428</v>
+        <v>1398</v>
       </c>
       <c r="G421" t="s">
-        <v>1763</v>
+        <v>1750</v>
       </c>
       <c r="H421" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16809,10 +16770,10 @@
         <v>1278</v>
       </c>
       <c r="G422" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="H422" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16838,7 +16799,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16864,7 +16825,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16884,13 +16845,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1432</v>
+        <v>1441</v>
       </c>
       <c r="G425" t="s">
-        <v>1764</v>
+        <v>1751</v>
       </c>
       <c r="H425" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16910,13 +16871,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="G426" t="s">
-        <v>1765</v>
+        <v>1752</v>
       </c>
       <c r="H426" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16936,13 +16897,13 @@
         <v>1285</v>
       </c>
       <c r="F427" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G427" t="s">
-        <v>1730</v>
+        <v>1717</v>
       </c>
       <c r="H427" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16965,10 +16926,10 @@
         <v>1278</v>
       </c>
       <c r="G428" t="s">
-        <v>1766</v>
+        <v>1753</v>
       </c>
       <c r="H428" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16988,13 +16949,13 @@
         <v>1285</v>
       </c>
       <c r="F429" t="s">
-        <v>1453</v>
+        <v>1443</v>
       </c>
       <c r="G429" t="s">
-        <v>1767</v>
+        <v>1754</v>
       </c>
       <c r="H429" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -17014,13 +16975,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G430" t="s">
-        <v>1768</v>
+        <v>1755</v>
       </c>
       <c r="H430" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -17040,13 +17001,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="G431" t="s">
-        <v>1769</v>
+        <v>1756</v>
       </c>
       <c r="H431" t="s">
-        <v>1826</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17066,13 +17027,13 @@
         <v>1297</v>
       </c>
       <c r="F432" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G432" t="s">
-        <v>1770</v>
+        <v>1757</v>
       </c>
       <c r="H432" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17098,7 +17059,7 @@
         <v>968</v>
       </c>
       <c r="H433" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17118,13 +17079,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G434" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
       <c r="H434" t="s">
-        <v>1822</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17144,13 +17105,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1454</v>
+        <v>1444</v>
       </c>
       <c r="G435" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
       <c r="H435" t="s">
-        <v>1813</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17173,10 +17134,10 @@
         <v>1276</v>
       </c>
       <c r="G436" t="s">
-        <v>1633</v>
+        <v>1620</v>
       </c>
       <c r="H436" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17196,13 +17157,13 @@
         <v>1294</v>
       </c>
       <c r="F437" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="G437" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
       <c r="H437" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17228,7 +17189,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17251,10 +17212,10 @@
         <v>1278</v>
       </c>
       <c r="G439" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
       <c r="H439" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17280,7 +17241,7 @@
         <v>1227</v>
       </c>
       <c r="H440" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17300,13 +17261,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1455</v>
+        <v>1340</v>
       </c>
       <c r="G441" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
       <c r="H441" t="s">
-        <v>1798</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17326,13 +17287,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1410</v>
+        <v>1372</v>
       </c>
       <c r="G442" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
       <c r="H442" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17355,10 +17316,10 @@
         <v>1294</v>
       </c>
       <c r="G443" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
       <c r="H443" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17378,13 +17339,13 @@
         <v>1279</v>
       </c>
       <c r="F444" t="s">
-        <v>1374</v>
+        <v>1337</v>
       </c>
       <c r="G444" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
       <c r="H444" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17404,13 +17365,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1438</v>
+        <v>1445</v>
       </c>
       <c r="G445" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
       <c r="H445" t="s">
-        <v>1827</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17436,7 +17397,7 @@
         <v>933</v>
       </c>
       <c r="H446" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17456,13 +17417,13 @@
         <v>1322</v>
       </c>
       <c r="F447" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G447" t="s">
-        <v>1780</v>
+        <v>1767</v>
       </c>
       <c r="H447" t="s">
-        <v>1809</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17482,13 +17443,13 @@
         <v>1285</v>
       </c>
       <c r="F448" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G448" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
       <c r="H448" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17508,13 +17469,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1374</v>
+        <v>1343</v>
       </c>
       <c r="G449" t="s">
-        <v>1782</v>
+        <v>1769</v>
       </c>
       <c r="H449" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17534,13 +17495,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1337</v>
+        <v>1363</v>
       </c>
       <c r="G450" t="s">
+        <v>1770</v>
+      </c>
+      <c r="H450" t="s">
         <v>1783</v>
-      </c>
-      <c r="H450" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17560,13 +17521,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1456</v>
+        <v>1358</v>
       </c>
       <c r="G451" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H451" t="s">
         <v>1784</v>
-      </c>
-      <c r="H451" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17586,13 +17547,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
       <c r="G452" t="s">
-        <v>1785</v>
+        <v>1772</v>
       </c>
       <c r="H452" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17612,13 +17573,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1457</v>
+        <v>1446</v>
       </c>
       <c r="G453" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
       <c r="H453" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17644,7 +17605,7 @@
         <v>947</v>
       </c>
       <c r="H454" t="s">
-        <v>1814</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17664,13 +17625,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1458</v>
+        <v>1447</v>
       </c>
       <c r="G455" t="s">
-        <v>1787</v>
+        <v>1774</v>
       </c>
       <c r="H455" t="s">
-        <v>1819</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17690,13 +17651,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="G456" t="s">
-        <v>1695</v>
+        <v>1682</v>
       </c>
       <c r="H456" t="s">
-        <v>1817</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17716,13 +17677,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="G457" t="s">
-        <v>1788</v>
+        <v>1775</v>
       </c>
       <c r="H457" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17745,10 +17706,10 @@
         <v>1278</v>
       </c>
       <c r="G458" t="s">
-        <v>1789</v>
+        <v>1776</v>
       </c>
       <c r="H458" t="s">
-        <v>1828</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17771,10 +17732,10 @@
         <v>1294</v>
       </c>
       <c r="G459" t="s">
-        <v>1790</v>
+        <v>1777</v>
       </c>
       <c r="H459" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17800,7 +17761,7 @@
         <v>947</v>
       </c>
       <c r="H460" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17820,13 +17781,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1459</v>
+        <v>1403</v>
       </c>
       <c r="G461" t="s">
-        <v>1791</v>
+        <v>1778</v>
       </c>
       <c r="H461" t="s">
-        <v>1809</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17846,13 +17807,13 @@
         <v>1304</v>
       </c>
       <c r="F462" t="s">
-        <v>1460</v>
+        <v>1346</v>
       </c>
       <c r="G462" t="s">
-        <v>1792</v>
+        <v>1779</v>
       </c>
       <c r="H462" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17875,10 +17836,10 @@
         <v>1278</v>
       </c>
       <c r="G463" t="s">
-        <v>1793</v>
+        <v>1780</v>
       </c>
       <c r="H463" t="s">
-        <v>1798</v>
+        <v>1785</v>
       </c>
     </row>
   </sheetData>
